--- a/Data/2022 Candidates File/candidate_list.xlsx
+++ b/Data/2022 Candidates File/candidate_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onest\OneDrive\Desktop\2022 Election Model\Data\2022 Candidates File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644851B9-0803-4585-8280-9468834CCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBFFA0A-E107-4386-BAA7-62897209703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="1060" windowWidth="16920" windowHeight="10450" xr2:uid="{A68E779F-2E40-4AF2-8B1B-69C7B61E945F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="1236">
   <si>
     <t>year</t>
   </si>
@@ -2322,6 +2322,1425 @@
   </si>
   <si>
     <t>Burns</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Norcross</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Van Drew</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Healey</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Gottheimer</t>
+  </si>
+  <si>
+    <t>Pallotta</t>
+  </si>
+  <si>
+    <t>Pallone Jr.</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Malinowski</t>
+  </si>
+  <si>
+    <t>Kean Jr.</t>
+  </si>
+  <si>
+    <t>Menendez Jr.</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Arroyo</t>
+  </si>
+  <si>
+    <t>Pascrell</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Prempeh</t>
+  </si>
+  <si>
+    <t>Payne Jr.</t>
+  </si>
+  <si>
+    <t>Pinckney</t>
+  </si>
+  <si>
+    <t>Sherrill</t>
+  </si>
+  <si>
+    <t>DeGroot</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Watson Coleman</t>
+  </si>
+  <si>
+    <t>Darius</t>
+  </si>
+  <si>
+    <t>Mayfield</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Ann Stansbury</t>
+  </si>
+  <si>
+    <t>Garcia Holmes</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
+    <t>Herrell</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Leger Fernandez</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Martinez Johnson</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Bridget</t>
+  </si>
+  <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>LaLota</t>
+  </si>
+  <si>
+    <t>Garbarino</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Zimmerman</t>
+  </si>
+  <si>
+    <t>Devolder-Santos</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Gillen</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>D'Esposito</t>
+  </si>
+  <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Zmich</t>
+  </si>
+  <si>
+    <t>Nydia</t>
+  </si>
+  <si>
+    <t>Velazquez</t>
+  </si>
+  <si>
+    <t>Pagan</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Dashevsky</t>
+  </si>
+  <si>
+    <t>Goldman</t>
+  </si>
+  <si>
+    <t>Benine</t>
+  </si>
+  <si>
+    <t>Hamdan</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Malliotakis</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Jerrold</t>
+  </si>
+  <si>
+    <t>Nadler</t>
+  </si>
+  <si>
+    <t>Zumbluskas</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Espaillat</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Ocasio-Cortez</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Forte</t>
+  </si>
+  <si>
+    <t>Ritchie</t>
+  </si>
+  <si>
+    <t>Stylo</t>
+  </si>
+  <si>
+    <t>Sapaskis</t>
+  </si>
+  <si>
+    <t>Jamaal</t>
+  </si>
+  <si>
+    <t>Bowman</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Levitt Flisser</t>
+  </si>
+  <si>
+    <t>Maloney</t>
+  </si>
+  <si>
+    <t>Lawler</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Molinaro</t>
+  </si>
+  <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Castelli</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Conole</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Della Pia</t>
+  </si>
+  <si>
+    <t>Langworthy</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Tenney</t>
+  </si>
+  <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Morelle</t>
+  </si>
+  <si>
+    <t>La'Ron</t>
+  </si>
+  <si>
+    <t>Singletary</t>
+  </si>
+  <si>
+    <t>Sams</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Villaverde</t>
+  </si>
+  <si>
+    <t>Gaskins</t>
+  </si>
+  <si>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>Foushee</t>
+  </si>
+  <si>
+    <t>Geels</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Foxx</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Parrish</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>Rouzer</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>McHenry</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Genant</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Beach-Ferrara</t>
+  </si>
+  <si>
+    <t>Chuck</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Hines</t>
+  </si>
+  <si>
+    <t>Harrigan</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Landsman</t>
+  </si>
+  <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Beatty</t>
+  </si>
+  <si>
+    <t>Stahley</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Tamie</t>
+  </si>
+  <si>
+    <t>Latta</t>
+  </si>
+  <si>
+    <t>Swartz</t>
+  </si>
+  <si>
+    <t>Lyras</t>
+  </si>
+  <si>
+    <t>Diemer</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Enoch</t>
+  </si>
+  <si>
+    <t>Marcy</t>
+  </si>
+  <si>
+    <t>Kaptur</t>
+  </si>
+  <si>
+    <t>J.R.</t>
+  </si>
+  <si>
+    <t>Majewski</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Esrati</t>
+  </si>
+  <si>
+    <t>Shontel</t>
+  </si>
+  <si>
+    <t>Brewer</t>
+  </si>
+  <si>
+    <t>Balderson</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Rippel-Elton</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Sykes</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Gesiotto Gilbert</t>
+  </si>
+  <si>
+    <t>Kilboy</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Hern</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Brecheen</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Jeremiah</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Brannon</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Bice</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Harris-Till</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Cliff</t>
+  </si>
+  <si>
+    <t>Bentz</t>
+  </si>
+  <si>
+    <t>Yetter</t>
+  </si>
+  <si>
+    <t>Blumenauer</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>Harbour</t>
+  </si>
+  <si>
+    <t>Hoyle</t>
+  </si>
+  <si>
+    <t>Alek</t>
+  </si>
+  <si>
+    <t>Skarlatos</t>
+  </si>
+  <si>
+    <t>McLeod-Skinner</t>
+  </si>
+  <si>
+    <t>Chavez-DeRemer</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Erickson</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Ehasz</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Bashir</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
+    <t>Nascimento</t>
+  </si>
+  <si>
+    <t>Gay Scanlon</t>
+  </si>
+  <si>
+    <t>Galluch</t>
+  </si>
+  <si>
+    <t>Chrissy</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Ciarrocchi</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>Scheller</t>
+  </si>
+  <si>
+    <t>Cartwright</t>
+  </si>
+  <si>
+    <t>Bognet</t>
+  </si>
+  <si>
+    <t>Meuser</t>
+  </si>
+  <si>
+    <t>Waldman</t>
+  </si>
+  <si>
+    <t>Shamaine</t>
+  </si>
+  <si>
+    <t>Daniels</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Smucker</t>
+  </si>
+  <si>
+    <t>Hollister</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Doyle</t>
+  </si>
+  <si>
+    <t>Reschenthaler</t>
+  </si>
+  <si>
+    <t>Molesevich</t>
+  </si>
+  <si>
+    <t>Pastore</t>
+  </si>
+  <si>
+    <t>Deluzio</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Shaffer</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>Magaziner</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Fung</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Judd</t>
+  </si>
+  <si>
+    <t>Larkins</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Timmons</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Evangeline</t>
+  </si>
+  <si>
+    <t>Hundley</t>
+  </si>
+  <si>
+    <t>Clyburn</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Buckner</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Dusty</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Harshbarger</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Parsons</t>
+  </si>
+  <si>
+    <t>Burchett</t>
+  </si>
+  <si>
+    <t>Harmon</t>
+  </si>
+  <si>
+    <t>Fleischmann</t>
+  </si>
+  <si>
+    <t>Meg</t>
+  </si>
+  <si>
+    <t>DesJarlais</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Ogles</t>
+  </si>
+  <si>
+    <t>Randal</t>
+  </si>
+  <si>
+    <t>Odessa</t>
+  </si>
+  <si>
+    <t>Kustoff</t>
+  </si>
+  <si>
+    <t>Lynnette</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Bergmann</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Jrmar</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Crenshaw</t>
+  </si>
+  <si>
+    <t>Fulford</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Srivastava</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Fallon</t>
+  </si>
+  <si>
+    <t>Iro</t>
+  </si>
+  <si>
+    <t>Omere</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Gooden</t>
+  </si>
+  <si>
+    <t>Tartisha</t>
+  </si>
+  <si>
+    <t>Ellzey</t>
+  </si>
+  <si>
+    <t>Lizzie</t>
+  </si>
+  <si>
+    <t>Pannill Fletcher</t>
+  </si>
+  <si>
+    <t>Teague</t>
+  </si>
+  <si>
+    <t>Luttrell</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Nuno</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Pfluger</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>Granger</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Ronny</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Mikal</t>
+  </si>
+  <si>
+    <t>Vallejo</t>
+  </si>
+  <si>
+    <t>De La Cruz</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t>Escobar</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Armendariz-Jackson</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>Mary Jo</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Maria Montiel</t>
+  </si>
+  <si>
+    <t>Jodey</t>
+  </si>
+  <si>
+    <t>Arrington</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Sinclair</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Zapata</t>
+  </si>
+  <si>
+    <t>Nehls</t>
+  </si>
+  <si>
+    <t>Lira</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>Van Duyne</t>
+  </si>
+  <si>
+    <t>McDowell</t>
+  </si>
+  <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Maclovio</t>
+  </si>
+  <si>
+    <t>Perez Jr.</t>
+  </si>
+  <si>
+    <t>Cuellar</t>
+  </si>
+  <si>
+    <t>Cassy</t>
+  </si>
+  <si>
+    <t>Sylvia</t>
+  </si>
+  <si>
+    <t>Schafanek</t>
+  </si>
+  <si>
+    <t>Crockett</t>
+  </si>
+  <si>
+    <t>Allred</t>
+  </si>
+  <si>
+    <t>Swad</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Gillespie</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Gonzalez Jr.</t>
+  </si>
+  <si>
+    <t>Mayra</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Casar</t>
+  </si>
+  <si>
+    <t>McQueen</t>
+  </si>
+  <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Haire</t>
+  </si>
+  <si>
+    <t>Doggett</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Garcia Sharon</t>
+  </si>
+  <si>
+    <t>Klussmann</t>
+  </si>
+  <si>
+    <t>Wesley</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Owens</t>
+  </si>
+  <si>
+    <t>Darlene</t>
+  </si>
+  <si>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Becca</t>
+  </si>
+  <si>
+    <t>Balint</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Madden</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>Luria</t>
+  </si>
+  <si>
+    <t>Kiggans</t>
+  </si>
+  <si>
+    <t>Namkung</t>
+  </si>
+  <si>
+    <t>Ashton</t>
+  </si>
+  <si>
+    <t>Donald McEachin</t>
+  </si>
+  <si>
+    <t>Benjamin Sr.</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Throneburg</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Lee Cline</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Spanberger</t>
+  </si>
+  <si>
+    <t>Yesli</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Sternoff Beyer Jr.</t>
+  </si>
+  <si>
+    <t>Karina</t>
+  </si>
+  <si>
+    <t>Lipsman</t>
+  </si>
+  <si>
+    <t>H. Morgan</t>
+  </si>
+  <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>Taysha</t>
+  </si>
+  <si>
+    <t>DeVaughan</t>
+  </si>
+  <si>
+    <t>Wexton</t>
+  </si>
+  <si>
+    <t>Hung</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Edward Connolly</t>
+  </si>
+  <si>
+    <t>Myles</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Cavaleri</t>
+  </si>
+  <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Gluesenkamp Perez</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>Cathy</t>
+  </si>
+  <si>
+    <t>McMorris Rodgers</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>Kilmer</t>
+  </si>
+  <si>
+    <t>Kreiselmaier</t>
+  </si>
+  <si>
+    <t>Pramila</t>
+  </si>
+  <si>
+    <t>Jayalpal</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Schrier</t>
+  </si>
+  <si>
+    <t>D. Adam</t>
+  </si>
+  <si>
+    <t>Michael Basler</t>
+  </si>
+  <si>
+    <t>Marilyn</t>
+  </si>
+  <si>
+    <t>Strickland</t>
+  </si>
+  <si>
+    <t>Swank</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Lacy</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Mooney</t>
+  </si>
+  <si>
+    <t>Wendell</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Steil</t>
+  </si>
+  <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>Pocan</t>
+  </si>
+  <si>
+    <t>Olsen</t>
+  </si>
+  <si>
+    <t>Pfaff</t>
+  </si>
+  <si>
+    <t>Derrick</t>
+  </si>
+  <si>
+    <t>Van Orden</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
+    <t>Fitzgerald</t>
+  </si>
+  <si>
+    <t>Van Someren</t>
+  </si>
+  <si>
+    <t>Grothman</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Ausman</t>
+  </si>
+  <si>
+    <t>Gallagher</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Grey Bull</t>
+  </si>
+  <si>
+    <t>Harriet</t>
+  </si>
+  <si>
+    <t>Hageman</t>
   </si>
 </sst>
 </file>
@@ -2673,11 +4092,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDAC5A2-E4A8-4410-8E32-4511F593EA4A}">
-  <dimension ref="A1:H473"/>
+  <dimension ref="A1:H840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B474" sqref="B474"/>
+      <pane ySplit="1" topLeftCell="A814" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B841" sqref="B841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13574,6 +14993,8447 @@
         <v>11</v>
       </c>
     </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <v>2022</v>
+      </c>
+      <c r="B474" t="s">
+        <v>763</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="E474" t="s">
+        <v>764</v>
+      </c>
+      <c r="F474" t="s">
+        <v>765</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <v>2022</v>
+      </c>
+      <c r="B475" t="s">
+        <v>763</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="E475" t="s">
+        <v>766</v>
+      </c>
+      <c r="F475" t="s">
+        <v>250</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+      <c r="H475" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <v>2022</v>
+      </c>
+      <c r="B476" t="s">
+        <v>763</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="E476" t="s">
+        <v>675</v>
+      </c>
+      <c r="F476" t="s">
+        <v>767</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="H476" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <v>2022</v>
+      </c>
+      <c r="B477" t="s">
+        <v>763</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+      <c r="E477" t="s">
+        <v>650</v>
+      </c>
+      <c r="F477" t="s">
+        <v>768</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <v>2022</v>
+      </c>
+      <c r="B478" t="s">
+        <v>763</v>
+      </c>
+      <c r="C478">
+        <v>3</v>
+      </c>
+      <c r="E478" t="s">
+        <v>420</v>
+      </c>
+      <c r="F478" t="s">
+        <v>200</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <v>2022</v>
+      </c>
+      <c r="B479" t="s">
+        <v>763</v>
+      </c>
+      <c r="C479">
+        <v>3</v>
+      </c>
+      <c r="E479" t="s">
+        <v>411</v>
+      </c>
+      <c r="F479" t="s">
+        <v>769</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <v>2022</v>
+      </c>
+      <c r="B480" t="s">
+        <v>763</v>
+      </c>
+      <c r="C480">
+        <v>4</v>
+      </c>
+      <c r="E480" t="s">
+        <v>397</v>
+      </c>
+      <c r="F480" t="s">
+        <v>178</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <v>2022</v>
+      </c>
+      <c r="B481" t="s">
+        <v>763</v>
+      </c>
+      <c r="C481">
+        <v>4</v>
+      </c>
+      <c r="E481" t="s">
+        <v>520</v>
+      </c>
+      <c r="F481" t="s">
+        <v>770</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <v>2022</v>
+      </c>
+      <c r="B482" t="s">
+        <v>763</v>
+      </c>
+      <c r="C482">
+        <v>5</v>
+      </c>
+      <c r="E482" t="s">
+        <v>117</v>
+      </c>
+      <c r="F482" t="s">
+        <v>771</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="H482" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <v>2022</v>
+      </c>
+      <c r="B483" t="s">
+        <v>763</v>
+      </c>
+      <c r="C483">
+        <v>5</v>
+      </c>
+      <c r="E483" t="s">
+        <v>497</v>
+      </c>
+      <c r="F483" t="s">
+        <v>772</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+      <c r="H483" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <v>2022</v>
+      </c>
+      <c r="B484" t="s">
+        <v>763</v>
+      </c>
+      <c r="C484">
+        <v>6</v>
+      </c>
+      <c r="E484" t="s">
+        <v>497</v>
+      </c>
+      <c r="F484" t="s">
+        <v>773</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="H484" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <v>2022</v>
+      </c>
+      <c r="B485" t="s">
+        <v>763</v>
+      </c>
+      <c r="C485">
+        <v>6</v>
+      </c>
+      <c r="E485" t="s">
+        <v>774</v>
+      </c>
+      <c r="F485" t="s">
+        <v>101</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+      <c r="H485" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <v>2022</v>
+      </c>
+      <c r="B486" t="s">
+        <v>763</v>
+      </c>
+      <c r="C486">
+        <v>7</v>
+      </c>
+      <c r="E486" t="s">
+        <v>47</v>
+      </c>
+      <c r="F486" t="s">
+        <v>775</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <v>2022</v>
+      </c>
+      <c r="B487" t="s">
+        <v>763</v>
+      </c>
+      <c r="C487">
+        <v>7</v>
+      </c>
+      <c r="E487" t="s">
+        <v>455</v>
+      </c>
+      <c r="F487" t="s">
+        <v>776</v>
+      </c>
+      <c r="G487">
+        <v>0</v>
+      </c>
+      <c r="H487" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <v>2022</v>
+      </c>
+      <c r="B488" t="s">
+        <v>763</v>
+      </c>
+      <c r="C488">
+        <v>8</v>
+      </c>
+      <c r="E488" t="s">
+        <v>21</v>
+      </c>
+      <c r="F488" t="s">
+        <v>777</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <v>2022</v>
+      </c>
+      <c r="B489" t="s">
+        <v>763</v>
+      </c>
+      <c r="C489">
+        <v>8</v>
+      </c>
+      <c r="E489" t="s">
+        <v>778</v>
+      </c>
+      <c r="F489" t="s">
+        <v>779</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <v>2022</v>
+      </c>
+      <c r="B490" t="s">
+        <v>763</v>
+      </c>
+      <c r="C490">
+        <v>9</v>
+      </c>
+      <c r="E490" t="s">
+        <v>322</v>
+      </c>
+      <c r="F490" t="s">
+        <v>780</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <v>2022</v>
+      </c>
+      <c r="B491" t="s">
+        <v>763</v>
+      </c>
+      <c r="C491">
+        <v>9</v>
+      </c>
+      <c r="E491" t="s">
+        <v>781</v>
+      </c>
+      <c r="F491" t="s">
+        <v>782</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <v>2022</v>
+      </c>
+      <c r="B492" t="s">
+        <v>763</v>
+      </c>
+      <c r="C492">
+        <v>10</v>
+      </c>
+      <c r="E492" t="s">
+        <v>764</v>
+      </c>
+      <c r="F492" t="s">
+        <v>783</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <v>2022</v>
+      </c>
+      <c r="B493" t="s">
+        <v>763</v>
+      </c>
+      <c r="C493">
+        <v>10</v>
+      </c>
+      <c r="E493" t="s">
+        <v>41</v>
+      </c>
+      <c r="F493" t="s">
+        <v>784</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <v>2022</v>
+      </c>
+      <c r="B494" t="s">
+        <v>763</v>
+      </c>
+      <c r="C494">
+        <v>11</v>
+      </c>
+      <c r="E494" t="s">
+        <v>17</v>
+      </c>
+      <c r="F494" t="s">
+        <v>785</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <v>2022</v>
+      </c>
+      <c r="B495" t="s">
+        <v>763</v>
+      </c>
+      <c r="C495">
+        <v>11</v>
+      </c>
+      <c r="E495" t="s">
+        <v>71</v>
+      </c>
+      <c r="F495" t="s">
+        <v>786</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+      <c r="H495" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <v>2022</v>
+      </c>
+      <c r="B496" t="s">
+        <v>763</v>
+      </c>
+      <c r="C496">
+        <v>12</v>
+      </c>
+      <c r="E496" t="s">
+        <v>787</v>
+      </c>
+      <c r="F496" t="s">
+        <v>788</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A497">
+        <v>2022</v>
+      </c>
+      <c r="B497" t="s">
+        <v>763</v>
+      </c>
+      <c r="C497">
+        <v>12</v>
+      </c>
+      <c r="E497" t="s">
+        <v>789</v>
+      </c>
+      <c r="F497" t="s">
+        <v>790</v>
+      </c>
+      <c r="G497">
+        <v>0</v>
+      </c>
+      <c r="H497" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <v>2022</v>
+      </c>
+      <c r="B498" t="s">
+        <v>791</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="E498" t="s">
+        <v>792</v>
+      </c>
+      <c r="F498" t="s">
+        <v>793</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A499">
+        <v>2022</v>
+      </c>
+      <c r="B499" t="s">
+        <v>791</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
+        <v>232</v>
+      </c>
+      <c r="F499" t="s">
+        <v>794</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A500">
+        <v>2022</v>
+      </c>
+      <c r="B500" t="s">
+        <v>791</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+      <c r="E500" t="s">
+        <v>795</v>
+      </c>
+      <c r="F500" t="s">
+        <v>796</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+      <c r="H500" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A501">
+        <v>2022</v>
+      </c>
+      <c r="B501" t="s">
+        <v>791</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+      <c r="E501" t="s">
+        <v>797</v>
+      </c>
+      <c r="F501" t="s">
+        <v>798</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+      <c r="H501" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <v>2022</v>
+      </c>
+      <c r="B502" t="s">
+        <v>791</v>
+      </c>
+      <c r="C502">
+        <v>3</v>
+      </c>
+      <c r="E502" t="s">
+        <v>799</v>
+      </c>
+      <c r="F502" t="s">
+        <v>800</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A503">
+        <v>2022</v>
+      </c>
+      <c r="B503" t="s">
+        <v>791</v>
+      </c>
+      <c r="C503">
+        <v>3</v>
+      </c>
+      <c r="E503" t="s">
+        <v>801</v>
+      </c>
+      <c r="F503" t="s">
+        <v>802</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A504">
+        <v>2022</v>
+      </c>
+      <c r="B504" t="s">
+        <v>803</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="E504" t="s">
+        <v>804</v>
+      </c>
+      <c r="F504" t="s">
+        <v>805</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+      <c r="H504" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A505">
+        <v>2022</v>
+      </c>
+      <c r="B505" t="s">
+        <v>803</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="E505" t="s">
+        <v>806</v>
+      </c>
+      <c r="F505" t="s">
+        <v>807</v>
+      </c>
+      <c r="G505">
+        <v>0</v>
+      </c>
+      <c r="H505" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <v>2022</v>
+      </c>
+      <c r="B506" t="s">
+        <v>803</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="E506" t="s">
+        <v>420</v>
+      </c>
+      <c r="F506" t="s">
+        <v>808</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+      <c r="H506" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A507">
+        <v>2022</v>
+      </c>
+      <c r="B507" t="s">
+        <v>803</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+      <c r="E507" t="s">
+        <v>809</v>
+      </c>
+      <c r="F507" t="s">
+        <v>810</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
+      </c>
+      <c r="H507" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A508">
+        <v>2022</v>
+      </c>
+      <c r="B508" t="s">
+        <v>803</v>
+      </c>
+      <c r="C508">
+        <v>3</v>
+      </c>
+      <c r="E508" t="s">
+        <v>21</v>
+      </c>
+      <c r="F508" t="s">
+        <v>811</v>
+      </c>
+      <c r="G508">
+        <v>0</v>
+      </c>
+      <c r="H508" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A509">
+        <v>2022</v>
+      </c>
+      <c r="B509" t="s">
+        <v>803</v>
+      </c>
+      <c r="C509">
+        <v>3</v>
+      </c>
+      <c r="E509" t="s">
+        <v>295</v>
+      </c>
+      <c r="F509" t="s">
+        <v>812</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+      <c r="H509" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A510">
+        <v>2022</v>
+      </c>
+      <c r="B510" t="s">
+        <v>803</v>
+      </c>
+      <c r="C510">
+        <v>4</v>
+      </c>
+      <c r="E510" t="s">
+        <v>813</v>
+      </c>
+      <c r="F510" t="s">
+        <v>814</v>
+      </c>
+      <c r="G510">
+        <v>0</v>
+      </c>
+      <c r="H510" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A511">
+        <v>2022</v>
+      </c>
+      <c r="B511" t="s">
+        <v>803</v>
+      </c>
+      <c r="C511">
+        <v>4</v>
+      </c>
+      <c r="E511" t="s">
+        <v>815</v>
+      </c>
+      <c r="F511" t="s">
+        <v>816</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
+      </c>
+      <c r="H511" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A512">
+        <v>2022</v>
+      </c>
+      <c r="B512" t="s">
+        <v>803</v>
+      </c>
+      <c r="C512">
+        <v>5</v>
+      </c>
+      <c r="E512" t="s">
+        <v>613</v>
+      </c>
+      <c r="F512" t="s">
+        <v>817</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A513">
+        <v>2022</v>
+      </c>
+      <c r="B513" t="s">
+        <v>803</v>
+      </c>
+      <c r="C513">
+        <v>5</v>
+      </c>
+      <c r="E513" t="s">
+        <v>71</v>
+      </c>
+      <c r="F513" t="s">
+        <v>818</v>
+      </c>
+      <c r="G513">
+        <v>0</v>
+      </c>
+      <c r="H513" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A514">
+        <v>2022</v>
+      </c>
+      <c r="B514" t="s">
+        <v>803</v>
+      </c>
+      <c r="C514">
+        <v>6</v>
+      </c>
+      <c r="E514" t="s">
+        <v>190</v>
+      </c>
+      <c r="F514" t="s">
+        <v>819</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A515">
+        <v>2022</v>
+      </c>
+      <c r="B515" t="s">
+        <v>803</v>
+      </c>
+      <c r="C515">
+        <v>6</v>
+      </c>
+      <c r="E515" t="s">
+        <v>455</v>
+      </c>
+      <c r="F515" t="s">
+        <v>820</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+      <c r="H515" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A516">
+        <v>2022</v>
+      </c>
+      <c r="B516" t="s">
+        <v>803</v>
+      </c>
+      <c r="C516">
+        <v>7</v>
+      </c>
+      <c r="E516" t="s">
+        <v>821</v>
+      </c>
+      <c r="F516" t="s">
+        <v>822</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <v>2022</v>
+      </c>
+      <c r="B517" t="s">
+        <v>803</v>
+      </c>
+      <c r="C517">
+        <v>7</v>
+      </c>
+      <c r="E517" t="s">
+        <v>61</v>
+      </c>
+      <c r="F517" t="s">
+        <v>823</v>
+      </c>
+      <c r="G517">
+        <v>0</v>
+      </c>
+      <c r="H517" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <v>2022</v>
+      </c>
+      <c r="B518" t="s">
+        <v>803</v>
+      </c>
+      <c r="C518">
+        <v>8</v>
+      </c>
+      <c r="E518" t="s">
+        <v>824</v>
+      </c>
+      <c r="F518" t="s">
+        <v>825</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+      <c r="H518" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A519">
+        <v>2022</v>
+      </c>
+      <c r="B519" t="s">
+        <v>803</v>
+      </c>
+      <c r="C519">
+        <v>8</v>
+      </c>
+      <c r="E519" t="s">
+        <v>826</v>
+      </c>
+      <c r="F519" t="s">
+        <v>827</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A520">
+        <v>2022</v>
+      </c>
+      <c r="B520" t="s">
+        <v>803</v>
+      </c>
+      <c r="C520">
+        <v>9</v>
+      </c>
+      <c r="E520" t="s">
+        <v>795</v>
+      </c>
+      <c r="F520" t="s">
+        <v>363</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+      <c r="H520" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A521">
+        <v>2022</v>
+      </c>
+      <c r="B521" t="s">
+        <v>803</v>
+      </c>
+      <c r="C521">
+        <v>10</v>
+      </c>
+      <c r="E521" t="s">
+        <v>192</v>
+      </c>
+      <c r="F521" t="s">
+        <v>828</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+      <c r="H521" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A522">
+        <v>2022</v>
+      </c>
+      <c r="B522" t="s">
+        <v>803</v>
+      </c>
+      <c r="C522">
+        <v>10</v>
+      </c>
+      <c r="E522" t="s">
+        <v>829</v>
+      </c>
+      <c r="F522" t="s">
+        <v>830</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+      <c r="H522" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A523">
+        <v>2022</v>
+      </c>
+      <c r="B523" t="s">
+        <v>803</v>
+      </c>
+      <c r="C523">
+        <v>11</v>
+      </c>
+      <c r="E523" t="s">
+        <v>831</v>
+      </c>
+      <c r="F523" t="s">
+        <v>832</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A524">
+        <v>2022</v>
+      </c>
+      <c r="B524" t="s">
+        <v>803</v>
+      </c>
+      <c r="C524">
+        <v>11</v>
+      </c>
+      <c r="E524" t="s">
+        <v>92</v>
+      </c>
+      <c r="F524" t="s">
+        <v>833</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A525">
+        <v>2022</v>
+      </c>
+      <c r="B525" t="s">
+        <v>803</v>
+      </c>
+      <c r="C525">
+        <v>12</v>
+      </c>
+      <c r="E525" t="s">
+        <v>834</v>
+      </c>
+      <c r="F525" t="s">
+        <v>835</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A526">
+        <v>2022</v>
+      </c>
+      <c r="B526" t="s">
+        <v>803</v>
+      </c>
+      <c r="C526">
+        <v>12</v>
+      </c>
+      <c r="E526" t="s">
+        <v>17</v>
+      </c>
+      <c r="F526" t="s">
+        <v>836</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A527">
+        <v>2022</v>
+      </c>
+      <c r="B527" t="s">
+        <v>803</v>
+      </c>
+      <c r="C527">
+        <v>13</v>
+      </c>
+      <c r="E527" t="s">
+        <v>837</v>
+      </c>
+      <c r="F527" t="s">
+        <v>838</v>
+      </c>
+      <c r="G527">
+        <v>1</v>
+      </c>
+      <c r="H527" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A528">
+        <v>2022</v>
+      </c>
+      <c r="B528" t="s">
+        <v>803</v>
+      </c>
+      <c r="C528">
+        <v>14</v>
+      </c>
+      <c r="E528" t="s">
+        <v>839</v>
+      </c>
+      <c r="F528" t="s">
+        <v>840</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+      <c r="H528" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A529">
+        <v>2022</v>
+      </c>
+      <c r="B529" t="s">
+        <v>803</v>
+      </c>
+      <c r="C529">
+        <v>14</v>
+      </c>
+      <c r="E529" t="s">
+        <v>841</v>
+      </c>
+      <c r="F529" t="s">
+        <v>842</v>
+      </c>
+      <c r="G529">
+        <v>0</v>
+      </c>
+      <c r="H529" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A530">
+        <v>2022</v>
+      </c>
+      <c r="B530" t="s">
+        <v>803</v>
+      </c>
+      <c r="C530">
+        <v>15</v>
+      </c>
+      <c r="E530" t="s">
+        <v>843</v>
+      </c>
+      <c r="F530" t="s">
+        <v>202</v>
+      </c>
+      <c r="G530">
+        <v>1</v>
+      </c>
+      <c r="H530" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A531">
+        <v>2022</v>
+      </c>
+      <c r="B531" t="s">
+        <v>803</v>
+      </c>
+      <c r="C531">
+        <v>15</v>
+      </c>
+      <c r="E531" t="s">
+        <v>844</v>
+      </c>
+      <c r="F531" t="s">
+        <v>845</v>
+      </c>
+      <c r="G531">
+        <v>0</v>
+      </c>
+      <c r="H531" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A532">
+        <v>2022</v>
+      </c>
+      <c r="B532" t="s">
+        <v>803</v>
+      </c>
+      <c r="C532">
+        <v>16</v>
+      </c>
+      <c r="E532" t="s">
+        <v>846</v>
+      </c>
+      <c r="F532" t="s">
+        <v>847</v>
+      </c>
+      <c r="G532">
+        <v>1</v>
+      </c>
+      <c r="H532" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A533">
+        <v>2022</v>
+      </c>
+      <c r="B533" t="s">
+        <v>803</v>
+      </c>
+      <c r="C533">
+        <v>16</v>
+      </c>
+      <c r="E533" t="s">
+        <v>848</v>
+      </c>
+      <c r="F533" t="s">
+        <v>849</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+      <c r="H533" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A534">
+        <v>2022</v>
+      </c>
+      <c r="B534" t="s">
+        <v>803</v>
+      </c>
+      <c r="C534">
+        <v>17</v>
+      </c>
+      <c r="E534" t="s">
+        <v>464</v>
+      </c>
+      <c r="F534" t="s">
+        <v>850</v>
+      </c>
+      <c r="G534">
+        <v>1</v>
+      </c>
+      <c r="H534" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A535">
+        <v>2022</v>
+      </c>
+      <c r="B535" t="s">
+        <v>803</v>
+      </c>
+      <c r="C535">
+        <v>17</v>
+      </c>
+      <c r="E535" t="s">
+        <v>158</v>
+      </c>
+      <c r="F535" t="s">
+        <v>851</v>
+      </c>
+      <c r="G535">
+        <v>0</v>
+      </c>
+      <c r="H535" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A536">
+        <v>2022</v>
+      </c>
+      <c r="B536" t="s">
+        <v>803</v>
+      </c>
+      <c r="C536">
+        <v>18</v>
+      </c>
+      <c r="E536" t="s">
+        <v>852</v>
+      </c>
+      <c r="F536" t="s">
+        <v>537</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A537">
+        <v>2022</v>
+      </c>
+      <c r="B537" t="s">
+        <v>803</v>
+      </c>
+      <c r="C537">
+        <v>18</v>
+      </c>
+      <c r="E537" t="s">
+        <v>853</v>
+      </c>
+      <c r="F537" t="s">
+        <v>854</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+      <c r="H537" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A538">
+        <v>2022</v>
+      </c>
+      <c r="B538" t="s">
+        <v>803</v>
+      </c>
+      <c r="C538">
+        <v>19</v>
+      </c>
+      <c r="E538" t="s">
+        <v>117</v>
+      </c>
+      <c r="F538" t="s">
+        <v>855</v>
+      </c>
+      <c r="G538">
+        <v>0</v>
+      </c>
+      <c r="H538" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A539">
+        <v>2022</v>
+      </c>
+      <c r="B539" t="s">
+        <v>803</v>
+      </c>
+      <c r="C539">
+        <v>19</v>
+      </c>
+      <c r="E539" t="s">
+        <v>432</v>
+      </c>
+      <c r="F539" t="s">
+        <v>856</v>
+      </c>
+      <c r="G539">
+        <v>0</v>
+      </c>
+      <c r="H539" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A540">
+        <v>2022</v>
+      </c>
+      <c r="B540" t="s">
+        <v>803</v>
+      </c>
+      <c r="C540">
+        <v>20</v>
+      </c>
+      <c r="E540" t="s">
+        <v>71</v>
+      </c>
+      <c r="F540" t="s">
+        <v>857</v>
+      </c>
+      <c r="G540">
+        <v>1</v>
+      </c>
+      <c r="H540" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A541">
+        <v>2022</v>
+      </c>
+      <c r="B541" t="s">
+        <v>803</v>
+      </c>
+      <c r="C541">
+        <v>20</v>
+      </c>
+      <c r="E541" t="s">
+        <v>491</v>
+      </c>
+      <c r="F541" t="s">
+        <v>858</v>
+      </c>
+      <c r="G541">
+        <v>0</v>
+      </c>
+      <c r="H541" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A542">
+        <v>2022</v>
+      </c>
+      <c r="B542" t="s">
+        <v>803</v>
+      </c>
+      <c r="C542">
+        <v>21</v>
+      </c>
+      <c r="E542" t="s">
+        <v>859</v>
+      </c>
+      <c r="F542" t="s">
+        <v>860</v>
+      </c>
+      <c r="G542">
+        <v>1</v>
+      </c>
+      <c r="H542" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A543">
+        <v>2022</v>
+      </c>
+      <c r="B543" t="s">
+        <v>803</v>
+      </c>
+      <c r="C543">
+        <v>21</v>
+      </c>
+      <c r="E543" t="s">
+        <v>103</v>
+      </c>
+      <c r="F543" t="s">
+        <v>861</v>
+      </c>
+      <c r="G543">
+        <v>0</v>
+      </c>
+      <c r="H543" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A544">
+        <v>2022</v>
+      </c>
+      <c r="B544" t="s">
+        <v>803</v>
+      </c>
+      <c r="C544">
+        <v>22</v>
+      </c>
+      <c r="E544" t="s">
+        <v>862</v>
+      </c>
+      <c r="F544" t="s">
+        <v>863</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+      <c r="H544" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A545">
+        <v>2022</v>
+      </c>
+      <c r="B545" t="s">
+        <v>803</v>
+      </c>
+      <c r="C545">
+        <v>22</v>
+      </c>
+      <c r="E545" t="s">
+        <v>864</v>
+      </c>
+      <c r="F545" t="s">
+        <v>408</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+      <c r="H545" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A546">
+        <v>2022</v>
+      </c>
+      <c r="B546" t="s">
+        <v>803</v>
+      </c>
+      <c r="C546">
+        <v>23</v>
+      </c>
+      <c r="E546" t="s">
+        <v>92</v>
+      </c>
+      <c r="F546" t="s">
+        <v>865</v>
+      </c>
+      <c r="G546">
+        <v>0</v>
+      </c>
+      <c r="H546" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A547">
+        <v>2022</v>
+      </c>
+      <c r="B547" t="s">
+        <v>803</v>
+      </c>
+      <c r="C547">
+        <v>23</v>
+      </c>
+      <c r="E547" t="s">
+        <v>806</v>
+      </c>
+      <c r="F547" t="s">
+        <v>866</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+      <c r="H547" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A548">
+        <v>2022</v>
+      </c>
+      <c r="B548" t="s">
+        <v>803</v>
+      </c>
+      <c r="C548">
+        <v>24</v>
+      </c>
+      <c r="E548" t="s">
+        <v>867</v>
+      </c>
+      <c r="F548" t="s">
+        <v>868</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+      <c r="H548" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A549">
+        <v>2022</v>
+      </c>
+      <c r="B549" t="s">
+        <v>803</v>
+      </c>
+      <c r="C549">
+        <v>24</v>
+      </c>
+      <c r="E549" t="s">
+        <v>667</v>
+      </c>
+      <c r="F549" t="s">
+        <v>869</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+      <c r="H549" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A550">
+        <v>2022</v>
+      </c>
+      <c r="B550" t="s">
+        <v>803</v>
+      </c>
+      <c r="C550">
+        <v>25</v>
+      </c>
+      <c r="E550" t="s">
+        <v>441</v>
+      </c>
+      <c r="F550" t="s">
+        <v>870</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+      <c r="H550" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A551">
+        <v>2022</v>
+      </c>
+      <c r="B551" t="s">
+        <v>803</v>
+      </c>
+      <c r="C551">
+        <v>25</v>
+      </c>
+      <c r="E551" t="s">
+        <v>871</v>
+      </c>
+      <c r="F551" t="s">
+        <v>872</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+      <c r="H551" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A552">
+        <v>2022</v>
+      </c>
+      <c r="B552" t="s">
+        <v>803</v>
+      </c>
+      <c r="C552">
+        <v>26</v>
+      </c>
+      <c r="E552" t="s">
+        <v>171</v>
+      </c>
+      <c r="F552" t="s">
+        <v>575</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A553">
+        <v>2022</v>
+      </c>
+      <c r="B553" t="s">
+        <v>803</v>
+      </c>
+      <c r="C553">
+        <v>26</v>
+      </c>
+      <c r="E553" t="s">
+        <v>667</v>
+      </c>
+      <c r="F553" t="s">
+        <v>873</v>
+      </c>
+      <c r="G553">
+        <v>0</v>
+      </c>
+      <c r="H553" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A554">
+        <v>2022</v>
+      </c>
+      <c r="B554" t="s">
+        <v>874</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="E554" t="s">
+        <v>764</v>
+      </c>
+      <c r="F554" t="s">
+        <v>468</v>
+      </c>
+      <c r="G554">
+        <v>0</v>
+      </c>
+      <c r="H554" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A555">
+        <v>2022</v>
+      </c>
+      <c r="B555" t="s">
+        <v>874</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="E555" t="s">
+        <v>875</v>
+      </c>
+      <c r="F555" t="s">
+        <v>178</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+      <c r="H555" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A556">
+        <v>2022</v>
+      </c>
+      <c r="B556" t="s">
+        <v>874</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+      <c r="E556" t="s">
+        <v>876</v>
+      </c>
+      <c r="F556" t="s">
+        <v>877</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A557">
+        <v>2022</v>
+      </c>
+      <c r="B557" t="s">
+        <v>874</v>
+      </c>
+      <c r="C557">
+        <v>2</v>
+      </c>
+      <c r="E557" t="s">
+        <v>381</v>
+      </c>
+      <c r="F557" t="s">
+        <v>878</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A558">
+        <v>2022</v>
+      </c>
+      <c r="B558" t="s">
+        <v>874</v>
+      </c>
+      <c r="C558">
+        <v>3</v>
+      </c>
+      <c r="E558" t="s">
+        <v>613</v>
+      </c>
+      <c r="F558" t="s">
+        <v>300</v>
+      </c>
+      <c r="G558">
+        <v>1</v>
+      </c>
+      <c r="H558" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A559">
+        <v>2022</v>
+      </c>
+      <c r="B559" t="s">
+        <v>874</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+      <c r="E559" t="s">
+        <v>125</v>
+      </c>
+      <c r="F559" t="s">
+        <v>879</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+      <c r="H559" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A560">
+        <v>2022</v>
+      </c>
+      <c r="B560" t="s">
+        <v>874</v>
+      </c>
+      <c r="C560">
+        <v>4</v>
+      </c>
+      <c r="E560" t="s">
+        <v>880</v>
+      </c>
+      <c r="F560" t="s">
+        <v>881</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <v>2022</v>
+      </c>
+      <c r="B561" t="s">
+        <v>874</v>
+      </c>
+      <c r="C561">
+        <v>4</v>
+      </c>
+      <c r="E561" t="s">
+        <v>284</v>
+      </c>
+      <c r="F561" t="s">
+        <v>882</v>
+      </c>
+      <c r="G561">
+        <v>0</v>
+      </c>
+      <c r="H561" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <v>2022</v>
+      </c>
+      <c r="B562" t="s">
+        <v>874</v>
+      </c>
+      <c r="C562">
+        <v>5</v>
+      </c>
+      <c r="E562" t="s">
+        <v>883</v>
+      </c>
+      <c r="F562" t="s">
+        <v>884</v>
+      </c>
+      <c r="G562">
+        <v>1</v>
+      </c>
+      <c r="H562" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <v>2022</v>
+      </c>
+      <c r="B563" t="s">
+        <v>874</v>
+      </c>
+      <c r="C563">
+        <v>5</v>
+      </c>
+      <c r="E563" t="s">
+        <v>885</v>
+      </c>
+      <c r="F563" t="s">
+        <v>886</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <v>2022</v>
+      </c>
+      <c r="B564" t="s">
+        <v>874</v>
+      </c>
+      <c r="C564">
+        <v>6</v>
+      </c>
+      <c r="E564" t="s">
+        <v>27</v>
+      </c>
+      <c r="F564" t="s">
+        <v>887</v>
+      </c>
+      <c r="G564">
+        <v>1</v>
+      </c>
+      <c r="H564" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <v>2022</v>
+      </c>
+      <c r="B565" t="s">
+        <v>874</v>
+      </c>
+      <c r="C565">
+        <v>6</v>
+      </c>
+      <c r="E565" t="s">
+        <v>409</v>
+      </c>
+      <c r="F565" t="s">
+        <v>861</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <v>2022</v>
+      </c>
+      <c r="B566" t="s">
+        <v>874</v>
+      </c>
+      <c r="C566">
+        <v>7</v>
+      </c>
+      <c r="E566" t="s">
+        <v>41</v>
+      </c>
+      <c r="F566" t="s">
+        <v>888</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <v>2022</v>
+      </c>
+      <c r="B567" t="s">
+        <v>874</v>
+      </c>
+      <c r="C567">
+        <v>7</v>
+      </c>
+      <c r="E567" t="s">
+        <v>889</v>
+      </c>
+      <c r="F567" t="s">
+        <v>890</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <v>2022</v>
+      </c>
+      <c r="B568" t="s">
+        <v>874</v>
+      </c>
+      <c r="C568">
+        <v>8</v>
+      </c>
+      <c r="E568" t="s">
+        <v>369</v>
+      </c>
+      <c r="F568" t="s">
+        <v>891</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <v>2022</v>
+      </c>
+      <c r="B569" t="s">
+        <v>874</v>
+      </c>
+      <c r="C569">
+        <v>8</v>
+      </c>
+      <c r="E569" t="s">
+        <v>241</v>
+      </c>
+      <c r="F569" t="s">
+        <v>95</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+      <c r="H569" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <v>2022</v>
+      </c>
+      <c r="B570" t="s">
+        <v>874</v>
+      </c>
+      <c r="C570">
+        <v>9</v>
+      </c>
+      <c r="E570" t="s">
+        <v>616</v>
+      </c>
+      <c r="F570" t="s">
+        <v>892</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <v>2022</v>
+      </c>
+      <c r="B571" t="s">
+        <v>874</v>
+      </c>
+      <c r="C571">
+        <v>9</v>
+      </c>
+      <c r="E571" t="s">
+        <v>893</v>
+      </c>
+      <c r="F571" t="s">
+        <v>363</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <v>2022</v>
+      </c>
+      <c r="B572" t="s">
+        <v>874</v>
+      </c>
+      <c r="C572">
+        <v>10</v>
+      </c>
+      <c r="E572" t="s">
+        <v>545</v>
+      </c>
+      <c r="F572" t="s">
+        <v>894</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <v>2022</v>
+      </c>
+      <c r="B573" t="s">
+        <v>874</v>
+      </c>
+      <c r="C573">
+        <v>10</v>
+      </c>
+      <c r="E573" t="s">
+        <v>895</v>
+      </c>
+      <c r="F573" t="s">
+        <v>896</v>
+      </c>
+      <c r="G573">
+        <v>0</v>
+      </c>
+      <c r="H573" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <v>2022</v>
+      </c>
+      <c r="B574" t="s">
+        <v>874</v>
+      </c>
+      <c r="C574">
+        <v>11</v>
+      </c>
+      <c r="E574" t="s">
+        <v>897</v>
+      </c>
+      <c r="F574" t="s">
+        <v>898</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+      <c r="H574" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <v>2022</v>
+      </c>
+      <c r="B575" t="s">
+        <v>874</v>
+      </c>
+      <c r="C575">
+        <v>11</v>
+      </c>
+      <c r="E575" t="s">
+        <v>899</v>
+      </c>
+      <c r="F575" t="s">
+        <v>900</v>
+      </c>
+      <c r="G575">
+        <v>0</v>
+      </c>
+      <c r="H575" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <v>2022</v>
+      </c>
+      <c r="B576" t="s">
+        <v>874</v>
+      </c>
+      <c r="C576">
+        <v>12</v>
+      </c>
+      <c r="E576" t="s">
+        <v>901</v>
+      </c>
+      <c r="F576" t="s">
+        <v>902</v>
+      </c>
+      <c r="G576">
+        <v>1</v>
+      </c>
+      <c r="H576" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <v>2022</v>
+      </c>
+      <c r="B577" t="s">
+        <v>874</v>
+      </c>
+      <c r="C577">
+        <v>12</v>
+      </c>
+      <c r="E577" t="s">
+        <v>255</v>
+      </c>
+      <c r="F577" t="s">
+        <v>126</v>
+      </c>
+      <c r="G577">
+        <v>0</v>
+      </c>
+      <c r="H577" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <v>2022</v>
+      </c>
+      <c r="B578" t="s">
+        <v>874</v>
+      </c>
+      <c r="C578">
+        <v>13</v>
+      </c>
+      <c r="E578" t="s">
+        <v>903</v>
+      </c>
+      <c r="F578" t="s">
+        <v>904</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <v>2022</v>
+      </c>
+      <c r="B579" t="s">
+        <v>874</v>
+      </c>
+      <c r="C579">
+        <v>13</v>
+      </c>
+      <c r="E579" t="s">
+        <v>905</v>
+      </c>
+      <c r="F579" t="s">
+        <v>906</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+      <c r="H579" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <v>2022</v>
+      </c>
+      <c r="B580" t="s">
+        <v>874</v>
+      </c>
+      <c r="C580">
+        <v>14</v>
+      </c>
+      <c r="E580" t="s">
+        <v>675</v>
+      </c>
+      <c r="F580" t="s">
+        <v>452</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+      <c r="H580" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <v>2022</v>
+      </c>
+      <c r="B581" t="s">
+        <v>874</v>
+      </c>
+      <c r="C581">
+        <v>14</v>
+      </c>
+      <c r="E581" t="s">
+        <v>852</v>
+      </c>
+      <c r="F581" t="s">
+        <v>907</v>
+      </c>
+      <c r="G581">
+        <v>0</v>
+      </c>
+      <c r="H581" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <v>2022</v>
+      </c>
+      <c r="B582" t="s">
+        <v>908</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="E582" t="s">
+        <v>53</v>
+      </c>
+      <c r="F582" t="s">
+        <v>909</v>
+      </c>
+      <c r="G582">
+        <v>1</v>
+      </c>
+      <c r="H582" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <v>2022</v>
+      </c>
+      <c r="B583" t="s">
+        <v>910</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="E583" t="s">
+        <v>81</v>
+      </c>
+      <c r="F583" t="s">
+        <v>911</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+      <c r="H583" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <v>2022</v>
+      </c>
+      <c r="B584" t="s">
+        <v>910</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="E584" t="s">
+        <v>55</v>
+      </c>
+      <c r="F584" t="s">
+        <v>912</v>
+      </c>
+      <c r="G584">
+        <v>0</v>
+      </c>
+      <c r="H584" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <v>2022</v>
+      </c>
+      <c r="B585" t="s">
+        <v>910</v>
+      </c>
+      <c r="C585">
+        <v>2</v>
+      </c>
+      <c r="E585" t="s">
+        <v>168</v>
+      </c>
+      <c r="F585" t="s">
+        <v>913</v>
+      </c>
+      <c r="G585">
+        <v>1</v>
+      </c>
+      <c r="H585" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <v>2022</v>
+      </c>
+      <c r="B586" t="s">
+        <v>910</v>
+      </c>
+      <c r="C586">
+        <v>2</v>
+      </c>
+      <c r="E586" t="s">
+        <v>914</v>
+      </c>
+      <c r="F586" t="s">
+        <v>915</v>
+      </c>
+      <c r="G586">
+        <v>0</v>
+      </c>
+      <c r="H586" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <v>2022</v>
+      </c>
+      <c r="B587" t="s">
+        <v>910</v>
+      </c>
+      <c r="C587">
+        <v>3</v>
+      </c>
+      <c r="E587" t="s">
+        <v>916</v>
+      </c>
+      <c r="F587" t="s">
+        <v>917</v>
+      </c>
+      <c r="G587">
+        <v>1</v>
+      </c>
+      <c r="H587" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <v>2022</v>
+      </c>
+      <c r="B588" t="s">
+        <v>910</v>
+      </c>
+      <c r="C588">
+        <v>3</v>
+      </c>
+      <c r="E588" t="s">
+        <v>126</v>
+      </c>
+      <c r="F588" t="s">
+        <v>918</v>
+      </c>
+      <c r="G588">
+        <v>0</v>
+      </c>
+      <c r="H588" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <v>2022</v>
+      </c>
+      <c r="B589" t="s">
+        <v>910</v>
+      </c>
+      <c r="C589">
+        <v>4</v>
+      </c>
+      <c r="E589" t="s">
+        <v>156</v>
+      </c>
+      <c r="F589" t="s">
+        <v>919</v>
+      </c>
+      <c r="G589">
+        <v>1</v>
+      </c>
+      <c r="H589" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <v>2022</v>
+      </c>
+      <c r="B590" t="s">
+        <v>910</v>
+      </c>
+      <c r="C590">
+        <v>4</v>
+      </c>
+      <c r="E590" t="s">
+        <v>920</v>
+      </c>
+      <c r="F590" t="s">
+        <v>374</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <v>2022</v>
+      </c>
+      <c r="B591" t="s">
+        <v>910</v>
+      </c>
+      <c r="C591">
+        <v>5</v>
+      </c>
+      <c r="E591" t="s">
+        <v>411</v>
+      </c>
+      <c r="F591" t="s">
+        <v>921</v>
+      </c>
+      <c r="G591">
+        <v>1</v>
+      </c>
+      <c r="H591" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <v>2022</v>
+      </c>
+      <c r="B592" t="s">
+        <v>910</v>
+      </c>
+      <c r="C592">
+        <v>5</v>
+      </c>
+      <c r="E592" t="s">
+        <v>678</v>
+      </c>
+      <c r="F592" t="s">
+        <v>922</v>
+      </c>
+      <c r="G592">
+        <v>0</v>
+      </c>
+      <c r="H592" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <v>2022</v>
+      </c>
+      <c r="B593" t="s">
+        <v>910</v>
+      </c>
+      <c r="C593">
+        <v>6</v>
+      </c>
+      <c r="E593" t="s">
+        <v>322</v>
+      </c>
+      <c r="F593" t="s">
+        <v>404</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
+      </c>
+      <c r="H593" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <v>2022</v>
+      </c>
+      <c r="B594" t="s">
+        <v>910</v>
+      </c>
+      <c r="C594">
+        <v>6</v>
+      </c>
+      <c r="E594" t="s">
+        <v>235</v>
+      </c>
+      <c r="F594" t="s">
+        <v>923</v>
+      </c>
+      <c r="G594">
+        <v>0</v>
+      </c>
+      <c r="H594" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <v>2022</v>
+      </c>
+      <c r="B595" t="s">
+        <v>910</v>
+      </c>
+      <c r="C595">
+        <v>7</v>
+      </c>
+      <c r="E595" t="s">
+        <v>520</v>
+      </c>
+      <c r="F595" t="s">
+        <v>924</v>
+      </c>
+      <c r="G595">
+        <v>0</v>
+      </c>
+      <c r="H595" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <v>2022</v>
+      </c>
+      <c r="B596" t="s">
+        <v>910</v>
+      </c>
+      <c r="C596">
+        <v>7</v>
+      </c>
+      <c r="E596" t="s">
+        <v>92</v>
+      </c>
+      <c r="F596" t="s">
+        <v>487</v>
+      </c>
+      <c r="G596">
+        <v>0</v>
+      </c>
+      <c r="H596" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <v>2022</v>
+      </c>
+      <c r="B597" t="s">
+        <v>910</v>
+      </c>
+      <c r="C597">
+        <v>8</v>
+      </c>
+      <c r="E597" t="s">
+        <v>925</v>
+      </c>
+      <c r="F597" t="s">
+        <v>926</v>
+      </c>
+      <c r="G597">
+        <v>1</v>
+      </c>
+      <c r="H597" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <v>2022</v>
+      </c>
+      <c r="B598" t="s">
+        <v>910</v>
+      </c>
+      <c r="C598">
+        <v>8</v>
+      </c>
+      <c r="E598" t="s">
+        <v>927</v>
+      </c>
+      <c r="F598" t="s">
+        <v>928</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <v>2022</v>
+      </c>
+      <c r="B599" t="s">
+        <v>910</v>
+      </c>
+      <c r="C599">
+        <v>9</v>
+      </c>
+      <c r="E599" t="s">
+        <v>929</v>
+      </c>
+      <c r="F599" t="s">
+        <v>930</v>
+      </c>
+      <c r="G599">
+        <v>1</v>
+      </c>
+      <c r="H599" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <v>2022</v>
+      </c>
+      <c r="B600" t="s">
+        <v>910</v>
+      </c>
+      <c r="C600">
+        <v>9</v>
+      </c>
+      <c r="E600" t="s">
+        <v>931</v>
+      </c>
+      <c r="F600" t="s">
+        <v>932</v>
+      </c>
+      <c r="G600">
+        <v>0</v>
+      </c>
+      <c r="H600" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <v>2022</v>
+      </c>
+      <c r="B601" t="s">
+        <v>910</v>
+      </c>
+      <c r="C601">
+        <v>10</v>
+      </c>
+      <c r="E601" t="s">
+        <v>158</v>
+      </c>
+      <c r="F601" t="s">
+        <v>933</v>
+      </c>
+      <c r="G601">
+        <v>1</v>
+      </c>
+      <c r="H601" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A602">
+        <v>2022</v>
+      </c>
+      <c r="B602" t="s">
+        <v>910</v>
+      </c>
+      <c r="C602">
+        <v>10</v>
+      </c>
+      <c r="E602" t="s">
+        <v>41</v>
+      </c>
+      <c r="F602" t="s">
+        <v>934</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A603">
+        <v>2022</v>
+      </c>
+      <c r="B603" t="s">
+        <v>910</v>
+      </c>
+      <c r="C603">
+        <v>11</v>
+      </c>
+      <c r="E603" t="s">
+        <v>935</v>
+      </c>
+      <c r="F603" t="s">
+        <v>638</v>
+      </c>
+      <c r="G603">
+        <v>1</v>
+      </c>
+      <c r="H603" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A604">
+        <v>2022</v>
+      </c>
+      <c r="B604" t="s">
+        <v>910</v>
+      </c>
+      <c r="C604">
+        <v>11</v>
+      </c>
+      <c r="E604" t="s">
+        <v>132</v>
+      </c>
+      <c r="F604" t="s">
+        <v>936</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A605">
+        <v>2022</v>
+      </c>
+      <c r="B605" t="s">
+        <v>910</v>
+      </c>
+      <c r="C605">
+        <v>12</v>
+      </c>
+      <c r="E605" t="s">
+        <v>572</v>
+      </c>
+      <c r="F605" t="s">
+        <v>937</v>
+      </c>
+      <c r="G605">
+        <v>1</v>
+      </c>
+      <c r="H605" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A606">
+        <v>2022</v>
+      </c>
+      <c r="B606" t="s">
+        <v>910</v>
+      </c>
+      <c r="C606">
+        <v>12</v>
+      </c>
+      <c r="E606" t="s">
+        <v>938</v>
+      </c>
+      <c r="F606" t="s">
+        <v>939</v>
+      </c>
+      <c r="G606">
+        <v>0</v>
+      </c>
+      <c r="H606" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A607">
+        <v>2022</v>
+      </c>
+      <c r="B607" t="s">
+        <v>910</v>
+      </c>
+      <c r="C607">
+        <v>13</v>
+      </c>
+      <c r="E607" t="s">
+        <v>940</v>
+      </c>
+      <c r="F607" t="s">
+        <v>941</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A608">
+        <v>2022</v>
+      </c>
+      <c r="B608" t="s">
+        <v>910</v>
+      </c>
+      <c r="C608">
+        <v>13</v>
+      </c>
+      <c r="E608" t="s">
+        <v>942</v>
+      </c>
+      <c r="F608" t="s">
+        <v>943</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A609">
+        <v>2022</v>
+      </c>
+      <c r="B609" t="s">
+        <v>910</v>
+      </c>
+      <c r="C609">
+        <v>14</v>
+      </c>
+      <c r="E609" t="s">
+        <v>41</v>
+      </c>
+      <c r="F609" t="s">
+        <v>916</v>
+      </c>
+      <c r="G609">
+        <v>1</v>
+      </c>
+      <c r="H609" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A610">
+        <v>2022</v>
+      </c>
+      <c r="B610" t="s">
+        <v>910</v>
+      </c>
+      <c r="C610">
+        <v>14</v>
+      </c>
+      <c r="E610" t="s">
+        <v>103</v>
+      </c>
+      <c r="F610" t="s">
+        <v>944</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A611">
+        <v>2022</v>
+      </c>
+      <c r="B611" t="s">
+        <v>945</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="E611" t="s">
+        <v>100</v>
+      </c>
+      <c r="F611" t="s">
+        <v>946</v>
+      </c>
+      <c r="G611">
+        <v>1</v>
+      </c>
+      <c r="H611" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A612">
+        <v>2022</v>
+      </c>
+      <c r="B612" t="s">
+        <v>945</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+      <c r="E612" t="s">
+        <v>129</v>
+      </c>
+      <c r="F612" t="s">
+        <v>725</v>
+      </c>
+      <c r="G612">
+        <v>0</v>
+      </c>
+      <c r="H612" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A613">
+        <v>2022</v>
+      </c>
+      <c r="B613" t="s">
+        <v>945</v>
+      </c>
+      <c r="C613">
+        <v>2</v>
+      </c>
+      <c r="E613" t="s">
+        <v>947</v>
+      </c>
+      <c r="F613" t="s">
+        <v>948</v>
+      </c>
+      <c r="G613">
+        <v>0</v>
+      </c>
+      <c r="H613" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A614">
+        <v>2022</v>
+      </c>
+      <c r="B614" t="s">
+        <v>945</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+      <c r="E614" t="s">
+        <v>117</v>
+      </c>
+      <c r="F614" t="s">
+        <v>949</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A615">
+        <v>2022</v>
+      </c>
+      <c r="B615" t="s">
+        <v>945</v>
+      </c>
+      <c r="C615">
+        <v>3</v>
+      </c>
+      <c r="E615" t="s">
+        <v>497</v>
+      </c>
+      <c r="F615" t="s">
+        <v>950</v>
+      </c>
+      <c r="G615">
+        <v>1</v>
+      </c>
+      <c r="H615" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A616">
+        <v>2022</v>
+      </c>
+      <c r="B616" t="s">
+        <v>945</v>
+      </c>
+      <c r="C616">
+        <v>3</v>
+      </c>
+      <c r="E616" t="s">
+        <v>951</v>
+      </c>
+      <c r="F616" t="s">
+        <v>877</v>
+      </c>
+      <c r="G616">
+        <v>0</v>
+      </c>
+      <c r="H616" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A617">
+        <v>2022</v>
+      </c>
+      <c r="B617" t="s">
+        <v>945</v>
+      </c>
+      <c r="C617">
+        <v>4</v>
+      </c>
+      <c r="E617" t="s">
+        <v>47</v>
+      </c>
+      <c r="F617" t="s">
+        <v>952</v>
+      </c>
+      <c r="G617">
+        <v>1</v>
+      </c>
+      <c r="H617" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A618">
+        <v>2022</v>
+      </c>
+      <c r="B618" t="s">
+        <v>945</v>
+      </c>
+      <c r="C618">
+        <v>4</v>
+      </c>
+      <c r="E618" t="s">
+        <v>36</v>
+      </c>
+      <c r="F618" t="s">
+        <v>953</v>
+      </c>
+      <c r="G618">
+        <v>0</v>
+      </c>
+      <c r="H618" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A619">
+        <v>2022</v>
+      </c>
+      <c r="B619" t="s">
+        <v>945</v>
+      </c>
+      <c r="C619">
+        <v>5</v>
+      </c>
+      <c r="E619" t="s">
+        <v>954</v>
+      </c>
+      <c r="F619" t="s">
+        <v>955</v>
+      </c>
+      <c r="G619">
+        <v>1</v>
+      </c>
+      <c r="H619" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A620">
+        <v>2022</v>
+      </c>
+      <c r="B620" t="s">
+        <v>945</v>
+      </c>
+      <c r="C620">
+        <v>5</v>
+      </c>
+      <c r="E620" t="s">
+        <v>956</v>
+      </c>
+      <c r="F620" t="s">
+        <v>957</v>
+      </c>
+      <c r="G620">
+        <v>0</v>
+      </c>
+      <c r="H620" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A621">
+        <v>2022</v>
+      </c>
+      <c r="B621" t="s">
+        <v>958</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+      <c r="E621" t="s">
+        <v>959</v>
+      </c>
+      <c r="F621" t="s">
+        <v>960</v>
+      </c>
+      <c r="G621">
+        <v>1</v>
+      </c>
+      <c r="H621" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A622">
+        <v>2022</v>
+      </c>
+      <c r="B622" t="s">
+        <v>958</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+      <c r="E622" t="s">
+        <v>397</v>
+      </c>
+      <c r="F622" t="s">
+        <v>541</v>
+      </c>
+      <c r="G622">
+        <v>0</v>
+      </c>
+      <c r="H622" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A623">
+        <v>2022</v>
+      </c>
+      <c r="B623" t="s">
+        <v>958</v>
+      </c>
+      <c r="C623">
+        <v>2</v>
+      </c>
+      <c r="E623" t="s">
+        <v>961</v>
+      </c>
+      <c r="F623" t="s">
+        <v>962</v>
+      </c>
+      <c r="G623">
+        <v>1</v>
+      </c>
+      <c r="H623" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A624">
+        <v>2022</v>
+      </c>
+      <c r="B624" t="s">
+        <v>958</v>
+      </c>
+      <c r="C624">
+        <v>2</v>
+      </c>
+      <c r="E624" t="s">
+        <v>441</v>
+      </c>
+      <c r="F624" t="s">
+        <v>963</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A625">
+        <v>2022</v>
+      </c>
+      <c r="B625" t="s">
+        <v>958</v>
+      </c>
+      <c r="C625">
+        <v>3</v>
+      </c>
+      <c r="E625" t="s">
+        <v>391</v>
+      </c>
+      <c r="F625" t="s">
+        <v>964</v>
+      </c>
+      <c r="G625">
+        <v>1</v>
+      </c>
+      <c r="H625" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A626">
+        <v>2022</v>
+      </c>
+      <c r="B626" t="s">
+        <v>958</v>
+      </c>
+      <c r="C626">
+        <v>3</v>
+      </c>
+      <c r="E626" t="s">
+        <v>965</v>
+      </c>
+      <c r="F626" t="s">
+        <v>966</v>
+      </c>
+      <c r="G626">
+        <v>0</v>
+      </c>
+      <c r="H626" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A627">
+        <v>2022</v>
+      </c>
+      <c r="B627" t="s">
+        <v>958</v>
+      </c>
+      <c r="C627">
+        <v>4</v>
+      </c>
+      <c r="E627" t="s">
+        <v>401</v>
+      </c>
+      <c r="F627" t="s">
+        <v>967</v>
+      </c>
+      <c r="G627">
+        <v>0</v>
+      </c>
+      <c r="H627" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A628">
+        <v>2022</v>
+      </c>
+      <c r="B628" t="s">
+        <v>958</v>
+      </c>
+      <c r="C628">
+        <v>4</v>
+      </c>
+      <c r="E628" t="s">
+        <v>968</v>
+      </c>
+      <c r="F628" t="s">
+        <v>969</v>
+      </c>
+      <c r="G628">
+        <v>0</v>
+      </c>
+      <c r="H628" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A629">
+        <v>2022</v>
+      </c>
+      <c r="B629" t="s">
+        <v>958</v>
+      </c>
+      <c r="C629">
+        <v>5</v>
+      </c>
+      <c r="E629" t="s">
+        <v>611</v>
+      </c>
+      <c r="F629" t="s">
+        <v>970</v>
+      </c>
+      <c r="G629">
+        <v>0</v>
+      </c>
+      <c r="H629" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A630">
+        <v>2022</v>
+      </c>
+      <c r="B630" t="s">
+        <v>958</v>
+      </c>
+      <c r="C630">
+        <v>5</v>
+      </c>
+      <c r="E630" t="s">
+        <v>621</v>
+      </c>
+      <c r="F630" t="s">
+        <v>971</v>
+      </c>
+      <c r="G630">
+        <v>0</v>
+      </c>
+      <c r="H630" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A631">
+        <v>2022</v>
+      </c>
+      <c r="B631" t="s">
+        <v>958</v>
+      </c>
+      <c r="C631">
+        <v>6</v>
+      </c>
+      <c r="E631" t="s">
+        <v>352</v>
+      </c>
+      <c r="F631" t="s">
+        <v>972</v>
+      </c>
+      <c r="G631">
+        <v>0</v>
+      </c>
+      <c r="H631" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A632">
+        <v>2022</v>
+      </c>
+      <c r="B632" t="s">
+        <v>958</v>
+      </c>
+      <c r="C632">
+        <v>6</v>
+      </c>
+      <c r="E632" t="s">
+        <v>17</v>
+      </c>
+      <c r="F632" t="s">
+        <v>973</v>
+      </c>
+      <c r="G632">
+        <v>0</v>
+      </c>
+      <c r="H632" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A633">
+        <v>2022</v>
+      </c>
+      <c r="B633" t="s">
+        <v>974</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="E633" t="s">
+        <v>171</v>
+      </c>
+      <c r="F633" t="s">
+        <v>975</v>
+      </c>
+      <c r="G633">
+        <v>1</v>
+      </c>
+      <c r="H633" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A634">
+        <v>2022</v>
+      </c>
+      <c r="B634" t="s">
+        <v>974</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="E634" t="s">
+        <v>529</v>
+      </c>
+      <c r="F634" t="s">
+        <v>976</v>
+      </c>
+      <c r="G634">
+        <v>0</v>
+      </c>
+      <c r="H634" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A635">
+        <v>2022</v>
+      </c>
+      <c r="B635" t="s">
+        <v>974</v>
+      </c>
+      <c r="C635">
+        <v>2</v>
+      </c>
+      <c r="E635" t="s">
+        <v>977</v>
+      </c>
+      <c r="F635" t="s">
+        <v>978</v>
+      </c>
+      <c r="G635">
+        <v>1</v>
+      </c>
+      <c r="H635" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A636">
+        <v>2022</v>
+      </c>
+      <c r="B636" t="s">
+        <v>974</v>
+      </c>
+      <c r="C636">
+        <v>2</v>
+      </c>
+      <c r="E636" t="s">
+        <v>314</v>
+      </c>
+      <c r="F636" t="s">
+        <v>979</v>
+      </c>
+      <c r="G636">
+        <v>0</v>
+      </c>
+      <c r="H636" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A637">
+        <v>2022</v>
+      </c>
+      <c r="B637" t="s">
+        <v>974</v>
+      </c>
+      <c r="C637">
+        <v>3</v>
+      </c>
+      <c r="E637" t="s">
+        <v>980</v>
+      </c>
+      <c r="F637" t="s">
+        <v>981</v>
+      </c>
+      <c r="G637">
+        <v>1</v>
+      </c>
+      <c r="H637" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A638">
+        <v>2022</v>
+      </c>
+      <c r="B638" t="s">
+        <v>974</v>
+      </c>
+      <c r="C638">
+        <v>4</v>
+      </c>
+      <c r="E638" t="s">
+        <v>982</v>
+      </c>
+      <c r="F638" t="s">
+        <v>617</v>
+      </c>
+      <c r="G638">
+        <v>1</v>
+      </c>
+      <c r="H638" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A639">
+        <v>2022</v>
+      </c>
+      <c r="B639" t="s">
+        <v>974</v>
+      </c>
+      <c r="C639">
+        <v>4</v>
+      </c>
+      <c r="E639" t="s">
+        <v>409</v>
+      </c>
+      <c r="F639" t="s">
+        <v>983</v>
+      </c>
+      <c r="G639">
+        <v>0</v>
+      </c>
+      <c r="H639" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A640">
+        <v>2022</v>
+      </c>
+      <c r="B640" t="s">
+        <v>974</v>
+      </c>
+      <c r="C640">
+        <v>5</v>
+      </c>
+      <c r="E640" t="s">
+        <v>36</v>
+      </c>
+      <c r="F640" t="s">
+        <v>984</v>
+      </c>
+      <c r="G640">
+        <v>1</v>
+      </c>
+      <c r="H640" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A641">
+        <v>2022</v>
+      </c>
+      <c r="B641" t="s">
+        <v>974</v>
+      </c>
+      <c r="C641">
+        <v>5</v>
+      </c>
+      <c r="E641" t="s">
+        <v>41</v>
+      </c>
+      <c r="F641" t="s">
+        <v>985</v>
+      </c>
+      <c r="G641">
+        <v>0</v>
+      </c>
+      <c r="H641" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A642">
+        <v>2022</v>
+      </c>
+      <c r="B642" t="s">
+        <v>974</v>
+      </c>
+      <c r="C642">
+        <v>6</v>
+      </c>
+      <c r="E642" t="s">
+        <v>986</v>
+      </c>
+      <c r="F642" t="s">
+        <v>245</v>
+      </c>
+      <c r="G642">
+        <v>1</v>
+      </c>
+      <c r="H642" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A643">
+        <v>2022</v>
+      </c>
+      <c r="B643" t="s">
+        <v>974</v>
+      </c>
+      <c r="C643">
+        <v>6</v>
+      </c>
+      <c r="E643" t="s">
+        <v>987</v>
+      </c>
+      <c r="F643" t="s">
+        <v>988</v>
+      </c>
+      <c r="G643">
+        <v>0</v>
+      </c>
+      <c r="H643" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A644">
+        <v>2022</v>
+      </c>
+      <c r="B644" t="s">
+        <v>974</v>
+      </c>
+      <c r="C644">
+        <v>7</v>
+      </c>
+      <c r="E644" t="s">
+        <v>774</v>
+      </c>
+      <c r="F644" t="s">
+        <v>989</v>
+      </c>
+      <c r="G644">
+        <v>1</v>
+      </c>
+      <c r="H644" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A645">
+        <v>2022</v>
+      </c>
+      <c r="B645" t="s">
+        <v>974</v>
+      </c>
+      <c r="C645">
+        <v>7</v>
+      </c>
+      <c r="E645" t="s">
+        <v>298</v>
+      </c>
+      <c r="F645" t="s">
+        <v>990</v>
+      </c>
+      <c r="G645">
+        <v>0</v>
+      </c>
+      <c r="H645" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A646">
+        <v>2022</v>
+      </c>
+      <c r="B646" t="s">
+        <v>974</v>
+      </c>
+      <c r="C646">
+        <v>8</v>
+      </c>
+      <c r="E646" t="s">
+        <v>103</v>
+      </c>
+      <c r="F646" t="s">
+        <v>991</v>
+      </c>
+      <c r="G646">
+        <v>1</v>
+      </c>
+      <c r="H646" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A647">
+        <v>2022</v>
+      </c>
+      <c r="B647" t="s">
+        <v>974</v>
+      </c>
+      <c r="C647">
+        <v>8</v>
+      </c>
+      <c r="E647" t="s">
+        <v>156</v>
+      </c>
+      <c r="F647" t="s">
+        <v>992</v>
+      </c>
+      <c r="G647">
+        <v>0</v>
+      </c>
+      <c r="H647" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A648">
+        <v>2022</v>
+      </c>
+      <c r="B648" t="s">
+        <v>974</v>
+      </c>
+      <c r="C648">
+        <v>9</v>
+      </c>
+      <c r="E648" t="s">
+        <v>369</v>
+      </c>
+      <c r="F648" t="s">
+        <v>993</v>
+      </c>
+      <c r="G648">
+        <v>1</v>
+      </c>
+      <c r="H648" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A649">
+        <v>2022</v>
+      </c>
+      <c r="B649" t="s">
+        <v>974</v>
+      </c>
+      <c r="C649">
+        <v>9</v>
+      </c>
+      <c r="E649" t="s">
+        <v>549</v>
+      </c>
+      <c r="F649" t="s">
+        <v>994</v>
+      </c>
+      <c r="G649">
+        <v>0</v>
+      </c>
+      <c r="H649" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A650">
+        <v>2022</v>
+      </c>
+      <c r="B650" t="s">
+        <v>974</v>
+      </c>
+      <c r="C650">
+        <v>10</v>
+      </c>
+      <c r="E650" t="s">
+        <v>241</v>
+      </c>
+      <c r="F650" t="s">
+        <v>211</v>
+      </c>
+      <c r="G650">
+        <v>1</v>
+      </c>
+      <c r="H650" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A651">
+        <v>2022</v>
+      </c>
+      <c r="B651" t="s">
+        <v>974</v>
+      </c>
+      <c r="C651">
+        <v>10</v>
+      </c>
+      <c r="E651" t="s">
+        <v>995</v>
+      </c>
+      <c r="F651" t="s">
+        <v>996</v>
+      </c>
+      <c r="G651">
+        <v>0</v>
+      </c>
+      <c r="H651" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A652">
+        <v>2022</v>
+      </c>
+      <c r="B652" t="s">
+        <v>974</v>
+      </c>
+      <c r="C652">
+        <v>11</v>
+      </c>
+      <c r="E652" t="s">
+        <v>997</v>
+      </c>
+      <c r="F652" t="s">
+        <v>998</v>
+      </c>
+      <c r="G652">
+        <v>1</v>
+      </c>
+      <c r="H652" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A653">
+        <v>2022</v>
+      </c>
+      <c r="B653" t="s">
+        <v>974</v>
+      </c>
+      <c r="C653">
+        <v>11</v>
+      </c>
+      <c r="E653" t="s">
+        <v>411</v>
+      </c>
+      <c r="F653" t="s">
+        <v>999</v>
+      </c>
+      <c r="G653">
+        <v>0</v>
+      </c>
+      <c r="H653" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A654">
+        <v>2022</v>
+      </c>
+      <c r="B654" t="s">
+        <v>974</v>
+      </c>
+      <c r="C654">
+        <v>12</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F654" t="s">
+        <v>126</v>
+      </c>
+      <c r="G654">
+        <v>0</v>
+      </c>
+      <c r="H654" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A655">
+        <v>2022</v>
+      </c>
+      <c r="B655" t="s">
+        <v>974</v>
+      </c>
+      <c r="C655">
+        <v>12</v>
+      </c>
+      <c r="E655" t="s">
+        <v>158</v>
+      </c>
+      <c r="F655" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G655">
+        <v>0</v>
+      </c>
+      <c r="H655" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A656">
+        <v>2022</v>
+      </c>
+      <c r="B656" t="s">
+        <v>974</v>
+      </c>
+      <c r="C656">
+        <v>13</v>
+      </c>
+      <c r="E656" t="s">
+        <v>87</v>
+      </c>
+      <c r="F656" t="s">
+        <v>916</v>
+      </c>
+      <c r="G656">
+        <v>1</v>
+      </c>
+      <c r="H656" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A657">
+        <v>2022</v>
+      </c>
+      <c r="B657" t="s">
+        <v>974</v>
+      </c>
+      <c r="C657">
+        <v>14</v>
+      </c>
+      <c r="E657" t="s">
+        <v>987</v>
+      </c>
+      <c r="F657" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G657">
+        <v>1</v>
+      </c>
+      <c r="H657" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A658">
+        <v>2022</v>
+      </c>
+      <c r="B658" t="s">
+        <v>974</v>
+      </c>
+      <c r="C658">
+        <v>15</v>
+      </c>
+      <c r="E658" t="s">
+        <v>599</v>
+      </c>
+      <c r="F658" t="s">
+        <v>102</v>
+      </c>
+      <c r="G658">
+        <v>1</v>
+      </c>
+      <c r="H658" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A659">
+        <v>2022</v>
+      </c>
+      <c r="B659" t="s">
+        <v>974</v>
+      </c>
+      <c r="C659">
+        <v>15</v>
+      </c>
+      <c r="E659" t="s">
+        <v>158</v>
+      </c>
+      <c r="F659" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G659">
+        <v>0</v>
+      </c>
+      <c r="H659" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A660">
+        <v>2022</v>
+      </c>
+      <c r="B660" t="s">
+        <v>974</v>
+      </c>
+      <c r="C660">
+        <v>16</v>
+      </c>
+      <c r="E660" t="s">
+        <v>17</v>
+      </c>
+      <c r="F660" t="s">
+        <v>53</v>
+      </c>
+      <c r="G660">
+        <v>1</v>
+      </c>
+      <c r="H660" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A661">
+        <v>2022</v>
+      </c>
+      <c r="B661" t="s">
+        <v>974</v>
+      </c>
+      <c r="C661">
+        <v>16</v>
+      </c>
+      <c r="E661" t="s">
+        <v>369</v>
+      </c>
+      <c r="F661" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G661">
+        <v>0</v>
+      </c>
+      <c r="H661" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A662">
+        <v>2022</v>
+      </c>
+      <c r="B662" t="s">
+        <v>974</v>
+      </c>
+      <c r="C662">
+        <v>17</v>
+      </c>
+      <c r="E662" t="s">
+        <v>237</v>
+      </c>
+      <c r="F662" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+      <c r="H662" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A663">
+        <v>2022</v>
+      </c>
+      <c r="B663" t="s">
+        <v>974</v>
+      </c>
+      <c r="C663">
+        <v>17</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F663" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G663">
+        <v>0</v>
+      </c>
+      <c r="H663" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A664">
+        <v>2022</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C664">
+        <v>1</v>
+      </c>
+      <c r="E664" t="s">
+        <v>41</v>
+      </c>
+      <c r="F664" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G664">
+        <v>1</v>
+      </c>
+      <c r="H664" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A665">
+        <v>2022</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C665">
+        <v>1</v>
+      </c>
+      <c r="E665" t="s">
+        <v>169</v>
+      </c>
+      <c r="F665" t="s">
+        <v>226</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+      <c r="H665" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A666">
+        <v>2022</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C666">
+        <v>2</v>
+      </c>
+      <c r="E666" t="s">
+        <v>629</v>
+      </c>
+      <c r="F666" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G666">
+        <v>0</v>
+      </c>
+      <c r="H666" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A667">
+        <v>2022</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C667">
+        <v>2</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F667" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G667">
+        <v>0</v>
+      </c>
+      <c r="H667" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A668">
+        <v>2022</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C668">
+        <v>1</v>
+      </c>
+      <c r="E668" t="s">
+        <v>122</v>
+      </c>
+      <c r="F668" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G668">
+        <v>1</v>
+      </c>
+      <c r="H668" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A669">
+        <v>2022</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C669">
+        <v>1</v>
+      </c>
+      <c r="E669" t="s">
+        <v>760</v>
+      </c>
+      <c r="F669" t="s">
+        <v>948</v>
+      </c>
+      <c r="G669">
+        <v>0</v>
+      </c>
+      <c r="H669" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A670">
+        <v>2022</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C670">
+        <v>2</v>
+      </c>
+      <c r="E670" t="s">
+        <v>206</v>
+      </c>
+      <c r="F670" t="s">
+        <v>374</v>
+      </c>
+      <c r="G670">
+        <v>1</v>
+      </c>
+      <c r="H670" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A671">
+        <v>2022</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C671">
+        <v>2</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F671" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+      <c r="H671" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A672">
+        <v>2022</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C672">
+        <v>3</v>
+      </c>
+      <c r="E672" t="s">
+        <v>675</v>
+      </c>
+      <c r="F672" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G672">
+        <v>1</v>
+      </c>
+      <c r="H672" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A673">
+        <v>2022</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C673">
+        <v>4</v>
+      </c>
+      <c r="E673" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F673" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G673">
+        <v>1</v>
+      </c>
+      <c r="H673" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A674">
+        <v>2022</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C674">
+        <v>5</v>
+      </c>
+      <c r="E674" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F674" t="s">
+        <v>450</v>
+      </c>
+      <c r="G674">
+        <v>1</v>
+      </c>
+      <c r="H674" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A675">
+        <v>2022</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C675">
+        <v>5</v>
+      </c>
+      <c r="E675" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F675" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G675">
+        <v>0</v>
+      </c>
+      <c r="H675" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A676">
+        <v>2022</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C676">
+        <v>6</v>
+      </c>
+      <c r="E676" t="s">
+        <v>343</v>
+      </c>
+      <c r="F676" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G676">
+        <v>1</v>
+      </c>
+      <c r="H676" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A677">
+        <v>2022</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C677">
+        <v>6</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F677" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G677">
+        <v>0</v>
+      </c>
+      <c r="H677" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A678">
+        <v>2022</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C678">
+        <v>7</v>
+      </c>
+      <c r="E678" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F678" t="s">
+        <v>241</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A679">
+        <v>2022</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C679">
+        <v>7</v>
+      </c>
+      <c r="E679" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F679" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G679">
+        <v>0</v>
+      </c>
+      <c r="H679" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A680">
+        <v>2022</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C680">
+        <v>1</v>
+      </c>
+      <c r="E680" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F680" t="s">
+        <v>404</v>
+      </c>
+      <c r="G680">
+        <v>1</v>
+      </c>
+      <c r="H680" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A681">
+        <v>2022</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+      <c r="E681" t="s">
+        <v>258</v>
+      </c>
+      <c r="F681" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G681">
+        <v>1</v>
+      </c>
+      <c r="H681" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A682">
+        <v>2022</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C682">
+        <v>1</v>
+      </c>
+      <c r="E682" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F682" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G682">
+        <v>0</v>
+      </c>
+      <c r="H682" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A683">
+        <v>2022</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C683">
+        <v>2</v>
+      </c>
+      <c r="E683" t="s">
+        <v>650</v>
+      </c>
+      <c r="F683" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G683">
+        <v>1</v>
+      </c>
+      <c r="H683" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A684">
+        <v>2022</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C684">
+        <v>2</v>
+      </c>
+      <c r="E684" t="s">
+        <v>120</v>
+      </c>
+      <c r="F684" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G684">
+        <v>0</v>
+      </c>
+      <c r="H684" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A685">
+        <v>2022</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C685">
+        <v>3</v>
+      </c>
+      <c r="E685" t="s">
+        <v>889</v>
+      </c>
+      <c r="F685" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G685">
+        <v>1</v>
+      </c>
+      <c r="H685" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A686">
+        <v>2022</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C686">
+        <v>3</v>
+      </c>
+      <c r="E686" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F686" t="s">
+        <v>152</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A687">
+        <v>2022</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C687">
+        <v>4</v>
+      </c>
+      <c r="E687" t="s">
+        <v>241</v>
+      </c>
+      <c r="F687" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G687">
+        <v>1</v>
+      </c>
+      <c r="H687" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A688">
+        <v>2022</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C688">
+        <v>4</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F688" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+      <c r="H688" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A689">
+        <v>2022</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C689">
+        <v>5</v>
+      </c>
+      <c r="E689" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F689" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+      <c r="H689" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A690">
+        <v>2022</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C690">
+        <v>5</v>
+      </c>
+      <c r="E690" t="s">
+        <v>57</v>
+      </c>
+      <c r="F690" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G690">
+        <v>0</v>
+      </c>
+      <c r="H690" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A691">
+        <v>2022</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C691">
+        <v>6</v>
+      </c>
+      <c r="E691" t="s">
+        <v>87</v>
+      </c>
+      <c r="F691" t="s">
+        <v>833</v>
+      </c>
+      <c r="G691">
+        <v>1</v>
+      </c>
+      <c r="H691" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A692">
+        <v>2022</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C692">
+        <v>6</v>
+      </c>
+      <c r="E692" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F692" t="s">
+        <v>54</v>
+      </c>
+      <c r="G692">
+        <v>0</v>
+      </c>
+      <c r="H692" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A693">
+        <v>2022</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C693">
+        <v>7</v>
+      </c>
+      <c r="E693" t="s">
+        <v>120</v>
+      </c>
+      <c r="F693" t="s">
+        <v>319</v>
+      </c>
+      <c r="G693">
+        <v>1</v>
+      </c>
+      <c r="H693" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A694">
+        <v>2022</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C694">
+        <v>7</v>
+      </c>
+      <c r="E694" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F694" t="s">
+        <v>53</v>
+      </c>
+      <c r="G694">
+        <v>0</v>
+      </c>
+      <c r="H694" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A695">
+        <v>2022</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C695">
+        <v>8</v>
+      </c>
+      <c r="E695" t="s">
+        <v>41</v>
+      </c>
+      <c r="F695" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G695">
+        <v>1</v>
+      </c>
+      <c r="H695" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A696">
+        <v>2022</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C696">
+        <v>8</v>
+      </c>
+      <c r="E696" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F696" t="s">
+        <v>408</v>
+      </c>
+      <c r="G696">
+        <v>0</v>
+      </c>
+      <c r="H696" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A697">
+        <v>2022</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C697">
+        <v>9</v>
+      </c>
+      <c r="E697" t="s">
+        <v>81</v>
+      </c>
+      <c r="F697" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G697">
+        <v>1</v>
+      </c>
+      <c r="H697" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A698">
+        <v>2022</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C698">
+        <v>9</v>
+      </c>
+      <c r="E698" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F698" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G698">
+        <v>0</v>
+      </c>
+      <c r="H698" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A699">
+        <v>2022</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+      <c r="E699" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F699" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G699">
+        <v>0</v>
+      </c>
+      <c r="H699" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A700">
+        <v>2022</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F700" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G700">
+        <v>0</v>
+      </c>
+      <c r="H700" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A701">
+        <v>2022</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C701">
+        <v>2</v>
+      </c>
+      <c r="E701" t="s">
+        <v>192</v>
+      </c>
+      <c r="F701" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G701">
+        <v>1</v>
+      </c>
+      <c r="H701" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A702">
+        <v>2022</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C702">
+        <v>2</v>
+      </c>
+      <c r="E702" t="s">
+        <v>454</v>
+      </c>
+      <c r="F702" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G702">
+        <v>0</v>
+      </c>
+      <c r="H702" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A703">
+        <v>2022</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C703">
+        <v>3</v>
+      </c>
+      <c r="E703" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F703" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G703">
+        <v>0</v>
+      </c>
+      <c r="H703" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A704">
+        <v>2022</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C704">
+        <v>3</v>
+      </c>
+      <c r="E704" t="s">
+        <v>355</v>
+      </c>
+      <c r="F704" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+      <c r="H704" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A705">
+        <v>2022</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C705">
+        <v>4</v>
+      </c>
+      <c r="E705" t="s">
+        <v>852</v>
+      </c>
+      <c r="F705" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G705">
+        <v>1</v>
+      </c>
+      <c r="H705" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A706">
+        <v>2022</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C706">
+        <v>4</v>
+      </c>
+      <c r="E706" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F706" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G706">
+        <v>0</v>
+      </c>
+      <c r="H706" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A707">
+        <v>2022</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C707">
+        <v>5</v>
+      </c>
+      <c r="E707" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F707" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G707">
+        <v>1</v>
+      </c>
+      <c r="H707" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A708">
+        <v>2022</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C708">
+        <v>5</v>
+      </c>
+      <c r="E708" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F708" t="s">
+        <v>644</v>
+      </c>
+      <c r="G708">
+        <v>0</v>
+      </c>
+      <c r="H708" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A709">
+        <v>2022</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C709">
+        <v>6</v>
+      </c>
+      <c r="E709" t="s">
+        <v>624</v>
+      </c>
+      <c r="F709" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G709">
+        <v>1</v>
+      </c>
+      <c r="H709" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A710">
+        <v>2022</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C710">
+        <v>7</v>
+      </c>
+      <c r="E710" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F710" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G710">
+        <v>1</v>
+      </c>
+      <c r="H710" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A711">
+        <v>2022</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C711">
+        <v>7</v>
+      </c>
+      <c r="E711" t="s">
+        <v>704</v>
+      </c>
+      <c r="F711" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G711">
+        <v>0</v>
+      </c>
+      <c r="H711" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A712">
+        <v>2022</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C712">
+        <v>8</v>
+      </c>
+      <c r="E712" t="s">
+        <v>813</v>
+      </c>
+      <c r="F712" t="s">
+        <v>99</v>
+      </c>
+      <c r="G712">
+        <v>0</v>
+      </c>
+      <c r="H712" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A713">
+        <v>2022</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C713">
+        <v>8</v>
+      </c>
+      <c r="E713" t="s">
+        <v>559</v>
+      </c>
+      <c r="F713" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
+      </c>
+      <c r="H713" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A714">
+        <v>2022</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C714">
+        <v>9</v>
+      </c>
+      <c r="E714" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F714" t="s">
+        <v>319</v>
+      </c>
+      <c r="G714">
+        <v>1</v>
+      </c>
+      <c r="H714" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A715">
+        <v>2022</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C715">
+        <v>9</v>
+      </c>
+      <c r="E715" t="s">
+        <v>150</v>
+      </c>
+      <c r="F715" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G715">
+        <v>0</v>
+      </c>
+      <c r="H715" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A716">
+        <v>2022</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C716">
+        <v>10</v>
+      </c>
+      <c r="E716" t="s">
+        <v>158</v>
+      </c>
+      <c r="F716" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G716">
+        <v>1</v>
+      </c>
+      <c r="H716" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A717">
+        <v>2022</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C717">
+        <v>10</v>
+      </c>
+      <c r="E717" t="s">
+        <v>212</v>
+      </c>
+      <c r="F717" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G717">
+        <v>0</v>
+      </c>
+      <c r="H717" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A718">
+        <v>2022</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C718">
+        <v>11</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F718" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G718">
+        <v>1</v>
+      </c>
+      <c r="H718" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A719">
+        <v>2022</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C719">
+        <v>12</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F719" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G719">
+        <v>1</v>
+      </c>
+      <c r="H719" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A720">
+        <v>2022</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C720">
+        <v>12</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F720" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+      <c r="H720" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A721">
+        <v>2022</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C721">
+        <v>13</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F721" t="s">
+        <v>452</v>
+      </c>
+      <c r="G721">
+        <v>1</v>
+      </c>
+      <c r="H721" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A722">
+        <v>2022</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C722">
+        <v>13</v>
+      </c>
+      <c r="E722" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F722" t="s">
+        <v>638</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+      <c r="H722" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A723">
+        <v>2022</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C723">
+        <v>14</v>
+      </c>
+      <c r="E723" t="s">
+        <v>535</v>
+      </c>
+      <c r="F723" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G723">
+        <v>1</v>
+      </c>
+      <c r="H723" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A724">
+        <v>2022</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C724">
+        <v>14</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F724" t="s">
+        <v>408</v>
+      </c>
+      <c r="G724">
+        <v>0</v>
+      </c>
+      <c r="H724" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A725">
+        <v>2022</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C725">
+        <v>15</v>
+      </c>
+      <c r="E725" t="s">
+        <v>232</v>
+      </c>
+      <c r="F725" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+      <c r="H725" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A726">
+        <v>2022</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C726">
+        <v>15</v>
+      </c>
+      <c r="E726" t="s">
+        <v>732</v>
+      </c>
+      <c r="F726" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+      <c r="H726" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A727">
+        <v>2022</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C727">
+        <v>16</v>
+      </c>
+      <c r="E727" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F727" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G727">
+        <v>1</v>
+      </c>
+      <c r="H727" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A728">
+        <v>2022</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C728">
+        <v>16</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F728" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G728">
+        <v>0</v>
+      </c>
+      <c r="H728" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A729">
+        <v>2022</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C729">
+        <v>17</v>
+      </c>
+      <c r="E729" t="s">
+        <v>148</v>
+      </c>
+      <c r="F729" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G729">
+        <v>1</v>
+      </c>
+      <c r="H729" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A730">
+        <v>2022</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C730">
+        <v>17</v>
+      </c>
+      <c r="E730" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F730" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G730">
+        <v>0</v>
+      </c>
+      <c r="H730" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A731">
+        <v>2022</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C731">
+        <v>18</v>
+      </c>
+      <c r="E731" t="s">
+        <v>360</v>
+      </c>
+      <c r="F731" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G731">
+        <v>1</v>
+      </c>
+      <c r="H731" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A732">
+        <v>2022</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C732">
+        <v>18</v>
+      </c>
+      <c r="E732" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F732" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G732">
+        <v>0</v>
+      </c>
+      <c r="H732" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A733">
+        <v>2022</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C733">
+        <v>19</v>
+      </c>
+      <c r="E733" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F733" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G733">
+        <v>1</v>
+      </c>
+      <c r="H733" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A734">
+        <v>2022</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C734">
+        <v>20</v>
+      </c>
+      <c r="E734" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F734" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G734">
+        <v>1</v>
+      </c>
+      <c r="H734" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A735">
+        <v>2022</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C735">
+        <v>20</v>
+      </c>
+      <c r="E735" t="s">
+        <v>885</v>
+      </c>
+      <c r="F735" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G735">
+        <v>0</v>
+      </c>
+      <c r="H735" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A736">
+        <v>2022</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C736">
+        <v>21</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F736" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G736">
+        <v>1</v>
+      </c>
+      <c r="H736" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A737">
+        <v>2022</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C737">
+        <v>21</v>
+      </c>
+      <c r="E737" t="s">
+        <v>867</v>
+      </c>
+      <c r="F737" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+      <c r="H737" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A738">
+        <v>2022</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C738">
+        <v>22</v>
+      </c>
+      <c r="E738" t="s">
+        <v>572</v>
+      </c>
+      <c r="F738" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G738">
+        <v>1</v>
+      </c>
+      <c r="H738" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A739">
+        <v>2022</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C739">
+        <v>22</v>
+      </c>
+      <c r="E739" t="s">
+        <v>611</v>
+      </c>
+      <c r="F739" t="s">
+        <v>919</v>
+      </c>
+      <c r="G739">
+        <v>0</v>
+      </c>
+      <c r="H739" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A740">
+        <v>2022</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C740">
+        <v>23</v>
+      </c>
+      <c r="E740" t="s">
+        <v>183</v>
+      </c>
+      <c r="F740" t="s">
+        <v>238</v>
+      </c>
+      <c r="G740">
+        <v>1</v>
+      </c>
+      <c r="H740" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A741">
+        <v>2022</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C741">
+        <v>23</v>
+      </c>
+      <c r="E741" t="s">
+        <v>87</v>
+      </c>
+      <c r="F741" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A742">
+        <v>2022</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C742">
+        <v>24</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F742" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G742">
+        <v>1</v>
+      </c>
+      <c r="H742" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A743">
+        <v>2022</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C743">
+        <v>24</v>
+      </c>
+      <c r="E743" t="s">
+        <v>210</v>
+      </c>
+      <c r="F743" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G743">
+        <v>0</v>
+      </c>
+      <c r="H743" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A744">
+        <v>2022</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C744">
+        <v>25</v>
+      </c>
+      <c r="E744" t="s">
+        <v>505</v>
+      </c>
+      <c r="F744" t="s">
+        <v>408</v>
+      </c>
+      <c r="G744">
+        <v>1</v>
+      </c>
+      <c r="H744" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A745">
+        <v>2022</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C745">
+        <v>26</v>
+      </c>
+      <c r="E745" t="s">
+        <v>158</v>
+      </c>
+      <c r="F745" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G745">
+        <v>1</v>
+      </c>
+      <c r="H745" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A746">
+        <v>2022</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C746">
+        <v>27</v>
+      </c>
+      <c r="E746" t="s">
+        <v>158</v>
+      </c>
+      <c r="F746" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G746">
+        <v>1</v>
+      </c>
+      <c r="H746" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A747">
+        <v>2022</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C747">
+        <v>27</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F747" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G747">
+        <v>0</v>
+      </c>
+      <c r="H747" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A748">
+        <v>2022</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C748">
+        <v>28</v>
+      </c>
+      <c r="E748" t="s">
+        <v>724</v>
+      </c>
+      <c r="F748" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G748">
+        <v>1</v>
+      </c>
+      <c r="H748" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A749">
+        <v>2022</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C749">
+        <v>28</v>
+      </c>
+      <c r="E749" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F749" t="s">
+        <v>176</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A750">
+        <v>2022</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C750">
+        <v>29</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F750" t="s">
+        <v>176</v>
+      </c>
+      <c r="G750">
+        <v>1</v>
+      </c>
+      <c r="H750" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A751">
+        <v>2022</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C751">
+        <v>29</v>
+      </c>
+      <c r="E751" t="s">
+        <v>21</v>
+      </c>
+      <c r="F751" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
+      <c r="H751" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A752">
+        <v>2022</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C752">
+        <v>30</v>
+      </c>
+      <c r="E752" t="s">
+        <v>897</v>
+      </c>
+      <c r="F752" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G752">
+        <v>0</v>
+      </c>
+      <c r="H752" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A753">
+        <v>2022</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C753">
+        <v>30</v>
+      </c>
+      <c r="E753" t="s">
+        <v>343</v>
+      </c>
+      <c r="F753" t="s">
+        <v>18</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A754">
+        <v>2022</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C754">
+        <v>31</v>
+      </c>
+      <c r="E754" t="s">
+        <v>87</v>
+      </c>
+      <c r="F754" t="s">
+        <v>392</v>
+      </c>
+      <c r="G754">
+        <v>1</v>
+      </c>
+      <c r="H754" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A755">
+        <v>2022</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C755">
+        <v>32</v>
+      </c>
+      <c r="E755" t="s">
+        <v>853</v>
+      </c>
+      <c r="F755" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G755">
+        <v>1</v>
+      </c>
+      <c r="H755" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A756">
+        <v>2022</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C756">
+        <v>32</v>
+      </c>
+      <c r="E756" t="s">
+        <v>426</v>
+      </c>
+      <c r="F756" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
+      </c>
+      <c r="H756" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A757">
+        <v>2022</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C757">
+        <v>33</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F757" t="s">
+        <v>20</v>
+      </c>
+      <c r="G757">
+        <v>1</v>
+      </c>
+      <c r="H757" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A758">
+        <v>2022</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C758">
+        <v>33</v>
+      </c>
+      <c r="E758" t="s">
+        <v>545</v>
+      </c>
+      <c r="F758" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G758">
+        <v>0</v>
+      </c>
+      <c r="H758" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A759">
+        <v>2022</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C759">
+        <v>34</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G759">
+        <v>1</v>
+      </c>
+      <c r="H759" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A760">
+        <v>2022</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C760">
+        <v>34</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F760" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G760">
+        <v>1</v>
+      </c>
+      <c r="H760" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A761">
+        <v>2022</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C761">
+        <v>35</v>
+      </c>
+      <c r="E761" t="s">
+        <v>55</v>
+      </c>
+      <c r="F761" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G761">
+        <v>0</v>
+      </c>
+      <c r="H761" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A762">
+        <v>2022</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C762">
+        <v>35</v>
+      </c>
+      <c r="E762" t="s">
+        <v>369</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G762">
+        <v>0</v>
+      </c>
+      <c r="H762" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A763">
+        <v>2022</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C763">
+        <v>36</v>
+      </c>
+      <c r="E763" t="s">
+        <v>171</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G763">
+        <v>1</v>
+      </c>
+      <c r="H763" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A764">
+        <v>2022</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C764">
+        <v>36</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F764" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G764">
+        <v>0</v>
+      </c>
+      <c r="H764" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A765">
+        <v>2022</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C765">
+        <v>37</v>
+      </c>
+      <c r="E765" t="s">
+        <v>997</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G765">
+        <v>1</v>
+      </c>
+      <c r="H765" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A766">
+        <v>2022</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C766">
+        <v>37</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
+      </c>
+      <c r="H766" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A767">
+        <v>2022</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C767">
+        <v>38</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G767">
+        <v>0</v>
+      </c>
+      <c r="H767" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A768">
+        <v>2022</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C768">
+        <v>38</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G768">
+        <v>0</v>
+      </c>
+      <c r="H768" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A769">
+        <v>2022</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C769">
+        <v>1</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F769" t="s">
+        <v>13</v>
+      </c>
+      <c r="G769">
+        <v>1</v>
+      </c>
+      <c r="H769" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A770">
+        <v>2022</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C770">
+        <v>1</v>
+      </c>
+      <c r="E770" t="s">
+        <v>23</v>
+      </c>
+      <c r="F770" t="s">
+        <v>99</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A771">
+        <v>2022</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C771">
+        <v>2</v>
+      </c>
+      <c r="E771" t="s">
+        <v>397</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G771">
+        <v>1</v>
+      </c>
+      <c r="H771" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A772">
+        <v>2022</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C772">
+        <v>2</v>
+      </c>
+      <c r="E772" t="s">
+        <v>806</v>
+      </c>
+      <c r="F772" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G772">
+        <v>0</v>
+      </c>
+      <c r="H772" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A773">
+        <v>2022</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C773">
+        <v>3</v>
+      </c>
+      <c r="E773" t="s">
+        <v>87</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G773">
+        <v>1</v>
+      </c>
+      <c r="H773" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A774">
+        <v>2022</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C774">
+        <v>3</v>
+      </c>
+      <c r="E774" t="s">
+        <v>599</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G774">
+        <v>0</v>
+      </c>
+      <c r="H774" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A775">
+        <v>2022</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C775">
+        <v>4</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F775" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G775">
+        <v>1</v>
+      </c>
+      <c r="H775" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A776">
+        <v>2022</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C776">
+        <v>4</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G776">
+        <v>0</v>
+      </c>
+      <c r="H776" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A777">
+        <v>2022</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C777">
+        <v>1</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F777" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G777">
+        <v>0</v>
+      </c>
+      <c r="H777" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A778">
+        <v>2022</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C778">
+        <v>1</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F778" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G778">
+        <v>0</v>
+      </c>
+      <c r="H778" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A779">
+        <v>2022</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C779">
+        <v>1</v>
+      </c>
+      <c r="E779" t="s">
+        <v>21</v>
+      </c>
+      <c r="F779" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G779">
+        <v>1</v>
+      </c>
+      <c r="H779" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A780">
+        <v>2022</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C780">
+        <v>1</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F780" t="s">
+        <v>99</v>
+      </c>
+      <c r="G780">
+        <v>0</v>
+      </c>
+      <c r="H780" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A781">
+        <v>2022</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C781">
+        <v>2</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F781" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G781">
+        <v>1</v>
+      </c>
+      <c r="H781" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A782">
+        <v>2022</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C782">
+        <v>2</v>
+      </c>
+      <c r="E782" t="s">
+        <v>260</v>
+      </c>
+      <c r="F782" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G782">
+        <v>0</v>
+      </c>
+      <c r="H782" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A783">
+        <v>2022</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C783">
+        <v>3</v>
+      </c>
+      <c r="E783" t="s">
+        <v>21</v>
+      </c>
+      <c r="F783" t="s">
+        <v>241</v>
+      </c>
+      <c r="G783">
+        <v>1</v>
+      </c>
+      <c r="H783" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A784">
+        <v>2022</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C784">
+        <v>3</v>
+      </c>
+      <c r="E784" t="s">
+        <v>325</v>
+      </c>
+      <c r="F784" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+      <c r="H784" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A785">
+        <v>2022</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C785">
+        <v>4</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G785">
+        <v>1</v>
+      </c>
+      <c r="H785" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A786">
+        <v>2022</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C786">
+        <v>4</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F786" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G786">
+        <v>0</v>
+      </c>
+      <c r="H786" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A787">
+        <v>2022</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C787">
+        <v>5</v>
+      </c>
+      <c r="E787" t="s">
+        <v>411</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G787">
+        <v>1</v>
+      </c>
+      <c r="H787" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A788">
+        <v>2022</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C788">
+        <v>5</v>
+      </c>
+      <c r="E788" t="s">
+        <v>956</v>
+      </c>
+      <c r="F788" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G788">
+        <v>0</v>
+      </c>
+      <c r="H788" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A789">
+        <v>2022</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C789">
+        <v>6</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F789" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G789">
+        <v>1</v>
+      </c>
+      <c r="H789" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A790">
+        <v>2022</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C790">
+        <v>6</v>
+      </c>
+      <c r="E790" t="s">
+        <v>260</v>
+      </c>
+      <c r="F790" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G790">
+        <v>0</v>
+      </c>
+      <c r="H790" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A791">
+        <v>2022</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C791">
+        <v>7</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F791" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G791">
+        <v>1</v>
+      </c>
+      <c r="H791" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A792">
+        <v>2022</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C792">
+        <v>7</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F792" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G792">
+        <v>0</v>
+      </c>
+      <c r="H792" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A793">
+        <v>2022</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C793">
+        <v>8</v>
+      </c>
+      <c r="E793" t="s">
+        <v>764</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G793">
+        <v>1</v>
+      </c>
+      <c r="H793" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A794">
+        <v>2022</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C794">
+        <v>8</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F794" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G794">
+        <v>0</v>
+      </c>
+      <c r="H794" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A795">
+        <v>2022</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C795">
+        <v>9</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F795" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G795">
+        <v>1</v>
+      </c>
+      <c r="H795" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A796">
+        <v>2022</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C796">
+        <v>9</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F796" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+      <c r="H796" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A797">
+        <v>2022</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C797">
+        <v>10</v>
+      </c>
+      <c r="E797" t="s">
+        <v>260</v>
+      </c>
+      <c r="F797" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G797">
+        <v>1</v>
+      </c>
+      <c r="H797" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A798">
+        <v>2022</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C798">
+        <v>10</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F798" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G798">
+        <v>0</v>
+      </c>
+      <c r="H798" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A799">
+        <v>2022</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C799">
+        <v>11</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G799">
+        <v>1</v>
+      </c>
+      <c r="H799" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A800">
+        <v>2022</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C800">
+        <v>11</v>
+      </c>
+      <c r="E800" t="s">
+        <v>343</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G800">
+        <v>0</v>
+      </c>
+      <c r="H800" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A801">
+        <v>2022</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C801">
+        <v>1</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G801">
+        <v>1</v>
+      </c>
+      <c r="H801" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A802">
+        <v>2022</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C802">
+        <v>1</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G802">
+        <v>0</v>
+      </c>
+      <c r="H802" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A803">
+        <v>2022</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C803">
+        <v>2</v>
+      </c>
+      <c r="E803" t="s">
+        <v>23</v>
+      </c>
+      <c r="F803" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G803">
+        <v>1</v>
+      </c>
+      <c r="H803" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A804">
+        <v>2022</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C804">
+        <v>2</v>
+      </c>
+      <c r="E804" t="s">
+        <v>369</v>
+      </c>
+      <c r="F804" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G804">
+        <v>0</v>
+      </c>
+      <c r="H804" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A805">
+        <v>2022</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C805">
+        <v>3</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F805" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G805">
+        <v>0</v>
+      </c>
+      <c r="H805" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A806">
+        <v>2022</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C806">
+        <v>3</v>
+      </c>
+      <c r="E806" t="s">
+        <v>206</v>
+      </c>
+      <c r="F806" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G806">
+        <v>0</v>
+      </c>
+      <c r="H806" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A807">
+        <v>2022</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C807">
+        <v>4</v>
+      </c>
+      <c r="E807" t="s">
+        <v>369</v>
+      </c>
+      <c r="F807" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G807">
+        <v>1</v>
+      </c>
+      <c r="H807" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A808">
+        <v>2022</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C808">
+        <v>4</v>
+      </c>
+      <c r="E808" t="s">
+        <v>90</v>
+      </c>
+      <c r="F808" t="s">
+        <v>88</v>
+      </c>
+      <c r="G808">
+        <v>0</v>
+      </c>
+      <c r="H808" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A809">
+        <v>2022</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C809">
+        <v>5</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F809" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G809">
+        <v>1</v>
+      </c>
+      <c r="H809" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A810">
+        <v>2022</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C810">
+        <v>5</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F810" t="s">
+        <v>644</v>
+      </c>
+      <c r="G810">
+        <v>0</v>
+      </c>
+      <c r="H810" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A811">
+        <v>2022</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C811">
+        <v>6</v>
+      </c>
+      <c r="E811" t="s">
+        <v>164</v>
+      </c>
+      <c r="F811" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G811">
+        <v>1</v>
+      </c>
+      <c r="H811" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A812">
+        <v>2022</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C812">
+        <v>6</v>
+      </c>
+      <c r="E812" t="s">
+        <v>491</v>
+      </c>
+      <c r="F812" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G812">
+        <v>0</v>
+      </c>
+      <c r="H812" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A813">
+        <v>2022</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C813">
+        <v>7</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F813" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G813">
+        <v>1</v>
+      </c>
+      <c r="H813" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A814">
+        <v>2022</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C814">
+        <v>7</v>
+      </c>
+      <c r="E814" t="s">
+        <v>961</v>
+      </c>
+      <c r="F814" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G814">
+        <v>0</v>
+      </c>
+      <c r="H814" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A815">
+        <v>2022</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C815">
+        <v>8</v>
+      </c>
+      <c r="E815" t="s">
+        <v>200</v>
+      </c>
+      <c r="F815" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G815">
+        <v>1</v>
+      </c>
+      <c r="H815" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A816">
+        <v>2022</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C816">
+        <v>8</v>
+      </c>
+      <c r="E816" t="s">
+        <v>103</v>
+      </c>
+      <c r="F816" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G816">
+        <v>0</v>
+      </c>
+      <c r="H816" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A817">
+        <v>2022</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C817">
+        <v>9</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F817" t="s">
+        <v>178</v>
+      </c>
+      <c r="G817">
+        <v>1</v>
+      </c>
+      <c r="H817" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A818">
+        <v>2022</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C818">
+        <v>9</v>
+      </c>
+      <c r="E818" t="s">
+        <v>96</v>
+      </c>
+      <c r="F818" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G818">
+        <v>0</v>
+      </c>
+      <c r="H818" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A819">
+        <v>2022</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C819">
+        <v>10</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G819">
+        <v>1</v>
+      </c>
+      <c r="H819" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A820">
+        <v>2022</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C820">
+        <v>10</v>
+      </c>
+      <c r="E820" t="s">
+        <v>355</v>
+      </c>
+      <c r="F820" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G820">
+        <v>0</v>
+      </c>
+      <c r="H820" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A821">
+        <v>2022</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C821">
+        <v>1</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F821" t="s">
+        <v>487</v>
+      </c>
+      <c r="G821">
+        <v>1</v>
+      </c>
+      <c r="H821" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A822">
+        <v>2022</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C822">
+        <v>1</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G822">
+        <v>0</v>
+      </c>
+      <c r="H822" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A823">
+        <v>2022</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C823">
+        <v>2</v>
+      </c>
+      <c r="E823" t="s">
+        <v>768</v>
+      </c>
+      <c r="F823" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G823">
+        <v>1</v>
+      </c>
+      <c r="H823" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A824">
+        <v>2022</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C824">
+        <v>2</v>
+      </c>
+      <c r="E824" t="s">
+        <v>12</v>
+      </c>
+      <c r="F824" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G824">
+        <v>0</v>
+      </c>
+      <c r="H824" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A825">
+        <v>2022</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C825">
+        <v>1</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F825" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G825">
+        <v>1</v>
+      </c>
+      <c r="H825" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A826">
+        <v>2022</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C826">
+        <v>1</v>
+      </c>
+      <c r="E826" t="s">
+        <v>711</v>
+      </c>
+      <c r="F826" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G826">
+        <v>0</v>
+      </c>
+      <c r="H826" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A827">
+        <v>2022</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C827">
+        <v>2</v>
+      </c>
+      <c r="E827" t="s">
+        <v>120</v>
+      </c>
+      <c r="F827" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G827">
+        <v>1</v>
+      </c>
+      <c r="H827" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A828">
+        <v>2022</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C828">
+        <v>2</v>
+      </c>
+      <c r="E828" t="s">
+        <v>275</v>
+      </c>
+      <c r="F828" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G828">
+        <v>0</v>
+      </c>
+      <c r="H828" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A829">
+        <v>2022</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C829">
+        <v>3</v>
+      </c>
+      <c r="E829" t="s">
+        <v>168</v>
+      </c>
+      <c r="F829" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G829">
+        <v>0</v>
+      </c>
+      <c r="H829" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A830">
+        <v>2022</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C830">
+        <v>3</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F830" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A831">
+        <v>2022</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C831">
+        <v>4</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F831" t="s">
+        <v>13</v>
+      </c>
+      <c r="G831">
+        <v>1</v>
+      </c>
+      <c r="H831" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A832">
+        <v>2022</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C832">
+        <v>4</v>
+      </c>
+      <c r="E832" t="s">
+        <v>650</v>
+      </c>
+      <c r="F832" t="s">
+        <v>18</v>
+      </c>
+      <c r="G832">
+        <v>0</v>
+      </c>
+      <c r="H832" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A833">
+        <v>2022</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C833">
+        <v>5</v>
+      </c>
+      <c r="E833" t="s">
+        <v>241</v>
+      </c>
+      <c r="F833" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G833">
+        <v>1</v>
+      </c>
+      <c r="H833" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A834">
+        <v>2022</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C834">
+        <v>5</v>
+      </c>
+      <c r="E834" t="s">
+        <v>17</v>
+      </c>
+      <c r="F834" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G834">
+        <v>0</v>
+      </c>
+      <c r="H834" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A835">
+        <v>2022</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C835">
+        <v>6</v>
+      </c>
+      <c r="E835" t="s">
+        <v>599</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G835">
+        <v>1</v>
+      </c>
+      <c r="H835" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A836">
+        <v>2022</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C836">
+        <v>7</v>
+      </c>
+      <c r="E836" t="s">
+        <v>47</v>
+      </c>
+      <c r="F836" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G836">
+        <v>1</v>
+      </c>
+      <c r="H836" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A837">
+        <v>2022</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C837">
+        <v>7</v>
+      </c>
+      <c r="E837" t="s">
+        <v>616</v>
+      </c>
+      <c r="F837" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+      <c r="H837" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A838">
+        <v>2022</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C838">
+        <v>8</v>
+      </c>
+      <c r="E838" t="s">
+        <v>17</v>
+      </c>
+      <c r="F838" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G838">
+        <v>1</v>
+      </c>
+      <c r="H838" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A839">
+        <v>2022</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C839">
+        <v>1</v>
+      </c>
+      <c r="E839" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F839" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+      <c r="H839" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A840">
+        <v>2022</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C840">
+        <v>1</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F840" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+      <c r="H840" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/2022 Candidates File/candidate_list.xlsx
+++ b/Data/2022 Candidates File/candidate_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onest\OneDrive\Desktop\2022 Election Model\Data\2022 Candidates File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10246AD-2F75-4BEF-AEEB-4B3D6041A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6244132-4250-43D5-9DDF-733D30BC5003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{A68E779F-2E40-4AF2-8B1B-69C7B61E945F}"/>
   </bookViews>
@@ -4979,9 +4979,6 @@
     <t>H2CA31125</t>
   </si>
   <si>
-    <t>H0CA08226</t>
-  </si>
-  <si>
     <t>H2CA34079</t>
   </si>
   <si>
@@ -6188,9 +6185,6 @@
     <t>H4CA24175</t>
   </si>
   <si>
-    <t>H2CA22157</t>
-  </si>
-  <si>
     <t>H2CA47188</t>
   </si>
   <si>
@@ -6270,6 +6264,12 @@
   </si>
   <si>
     <t>H0TX07170</t>
+  </si>
+  <si>
+    <t>H2CA39078</t>
+  </si>
+  <si>
+    <t>H8CA34266</t>
   </si>
 </sst>
 </file>
@@ -6624,8 +6624,8 @@
   <dimension ref="A1:H842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D842" sqref="D842"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6885,13 +6885,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -7275,7 +7275,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E25" t="s">
         <v>58</v>
@@ -7535,7 +7535,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E35" t="s">
         <v>78</v>
@@ -7587,7 +7587,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E37" t="s">
         <v>82</v>
@@ -7639,7 +7639,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E39" t="s">
         <v>86</v>
@@ -8237,7 +8237,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E62" t="s">
         <v>126</v>
@@ -8341,7 +8341,7 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E66" t="s">
         <v>133</v>
@@ -8861,7 +8861,7 @@
         <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E86" t="s">
         <v>167</v>
@@ -8991,7 +8991,7 @@
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
@@ -9121,7 +9121,7 @@
         <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E96" t="s">
         <v>184</v>
@@ -9173,7 +9173,7 @@
         <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E98" t="s">
         <v>187</v>
@@ -9225,7 +9225,7 @@
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E100" t="s">
         <v>191</v>
@@ -9277,7 +9277,7 @@
         <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E102" t="s">
         <v>194</v>
@@ -9329,10 +9329,10 @@
         <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E104" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F104" t="s">
         <v>238</v>
@@ -9355,7 +9355,7 @@
         <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>1648</v>
+        <v>2078</v>
       </c>
       <c r="E105" t="s">
         <v>149</v>
@@ -9381,7 +9381,7 @@
         <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E106" t="s">
         <v>40</v>
@@ -9485,7 +9485,7 @@
         <v>36</v>
       </c>
       <c r="D110" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E110" t="s">
         <v>204</v>
@@ -9563,7 +9563,7 @@
         <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>2051</v>
+        <v>2077</v>
       </c>
       <c r="E113" t="s">
         <v>210</v>
@@ -9589,7 +9589,7 @@
         <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E114" t="s">
         <v>131</v>
@@ -9667,7 +9667,7 @@
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E117" t="s">
         <v>215</v>
@@ -9693,7 +9693,7 @@
         <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E118" t="s">
         <v>216</v>
@@ -9771,7 +9771,7 @@
         <v>42</v>
       </c>
       <c r="D121" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="E121" t="s">
         <v>21</v>
@@ -9901,7 +9901,7 @@
         <v>44</v>
       </c>
       <c r="D126" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E126" t="s">
         <v>70</v>
@@ -10031,7 +10031,7 @@
         <v>47</v>
       </c>
       <c r="D131" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E131" t="s">
         <v>237</v>
@@ -10109,7 +10109,7 @@
         <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E134" t="s">
         <v>126</v>
@@ -10161,7 +10161,7 @@
         <v>49</v>
       </c>
       <c r="D136" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E136" t="s">
         <v>170</v>
@@ -10239,7 +10239,7 @@
         <v>51</v>
       </c>
       <c r="D139" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="E139" t="s">
         <v>249</v>
@@ -10291,7 +10291,7 @@
         <v>52</v>
       </c>
       <c r="D141" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E141" t="s">
         <v>60</v>
@@ -10343,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E143" t="s">
         <v>256</v>
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E144" t="s">
         <v>258</v>
@@ -10395,7 +10395,7 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="E145" t="s">
         <v>204</v>
@@ -10499,7 +10499,7 @@
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E149" t="s">
         <v>218</v>
@@ -10525,7 +10525,7 @@
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E150" t="s">
         <v>265</v>
@@ -10551,7 +10551,7 @@
         <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E151" t="s">
         <v>89</v>
@@ -10577,7 +10577,7 @@
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E152" t="s">
         <v>40</v>
@@ -10629,7 +10629,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E154" t="s">
         <v>80</v>
@@ -10655,7 +10655,7 @@
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E155" t="s">
         <v>271</v>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E159" t="s">
         <v>86</v>
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E160" t="s">
         <v>280</v>
@@ -10811,7 +10811,7 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E161" t="s">
         <v>204</v>
@@ -10863,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E163" t="s">
         <v>284</v>
@@ -10941,7 +10941,7 @@
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E166" t="s">
         <v>289</v>
@@ -10993,7 +10993,7 @@
         <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E168" t="s">
         <v>293</v>
@@ -11123,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E173" t="s">
         <v>302</v>
@@ -11149,7 +11149,7 @@
         <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E174" t="s">
         <v>304</v>
@@ -11201,7 +11201,7 @@
         <v>3</v>
       </c>
       <c r="D176" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E176" t="s">
         <v>308</v>
@@ -11227,7 +11227,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E177" t="s">
         <v>310</v>
@@ -11253,7 +11253,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E178" t="s">
         <v>312</v>
@@ -11331,7 +11331,7 @@
         <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E181" t="s">
         <v>316</v>
@@ -11357,7 +11357,7 @@
         <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="E182" t="s">
         <v>318</v>
@@ -11409,7 +11409,7 @@
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E184" t="s">
         <v>322</v>
@@ -11487,7 +11487,7 @@
         <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E187" t="s">
         <v>327</v>
@@ -11513,7 +11513,7 @@
         <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E188" t="s">
         <v>329</v>
@@ -11591,7 +11591,7 @@
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E191" t="s">
         <v>334</v>
@@ -11617,7 +11617,7 @@
         <v>12</v>
       </c>
       <c r="D192" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E192" t="s">
         <v>336</v>
@@ -11773,7 +11773,7 @@
         <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E198" t="s">
         <v>345</v>
@@ -11799,7 +11799,7 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E199" t="s">
         <v>346</v>
@@ -11877,7 +11877,7 @@
         <v>17</v>
       </c>
       <c r="D202" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E202" t="s">
         <v>350</v>
@@ -11903,7 +11903,7 @@
         <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E203" t="s">
         <v>239</v>
@@ -11955,7 +11955,7 @@
         <v>19</v>
       </c>
       <c r="D205" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E205" t="s">
         <v>356</v>
@@ -12007,7 +12007,7 @@
         <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E207" t="s">
         <v>360</v>
@@ -12059,7 +12059,7 @@
         <v>21</v>
       </c>
       <c r="D209" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E209" t="s">
         <v>363</v>
@@ -12085,7 +12085,7 @@
         <v>22</v>
       </c>
       <c r="D210" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E210" t="s">
         <v>365</v>
@@ -12111,7 +12111,7 @@
         <v>22</v>
       </c>
       <c r="D211" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E211" t="s">
         <v>367</v>
@@ -12137,13 +12137,13 @@
         <v>23</v>
       </c>
       <c r="D212" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E212" t="s">
         <v>93</v>
       </c>
       <c r="F212" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E214" t="s">
         <v>370</v>
@@ -12267,7 +12267,7 @@
         <v>25</v>
       </c>
       <c r="D217" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E217" t="s">
         <v>374</v>
@@ -12319,7 +12319,7 @@
         <v>26</v>
       </c>
       <c r="D219" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E219" t="s">
         <v>378</v>
@@ -12345,7 +12345,7 @@
         <v>27</v>
       </c>
       <c r="D220" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E220" t="s">
         <v>380</v>
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E224" t="s">
         <v>388</v>
@@ -12475,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E225" t="s">
         <v>390</v>
@@ -12501,7 +12501,7 @@
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E226" t="s">
         <v>392</v>
@@ -12527,7 +12527,7 @@
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E227" t="s">
         <v>394</v>
@@ -12553,7 +12553,7 @@
         <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E228" t="s">
         <v>396</v>
@@ -12579,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E229" t="s">
         <v>398</v>
@@ -12605,7 +12605,7 @@
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="E230" t="s">
         <v>400</v>
@@ -12631,7 +12631,7 @@
         <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E231" t="s">
         <v>402</v>
@@ -12657,7 +12657,7 @@
         <v>5</v>
       </c>
       <c r="D232" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E232" t="s">
         <v>404</v>
@@ -12683,7 +12683,7 @@
         <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E233" t="s">
         <v>406</v>
@@ -12709,7 +12709,7 @@
         <v>6</v>
       </c>
       <c r="D234" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E234" t="s">
         <v>408</v>
@@ -12735,7 +12735,7 @@
         <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E235" t="s">
         <v>409</v>
@@ -12761,7 +12761,7 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E236" t="s">
         <v>411</v>
@@ -12787,7 +12787,7 @@
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="E237" t="s">
         <v>119</v>
@@ -12813,7 +12813,7 @@
         <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E238" t="s">
         <v>414</v>
@@ -12839,7 +12839,7 @@
         <v>8</v>
       </c>
       <c r="D239" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E239" t="s">
         <v>415</v>
@@ -12891,7 +12891,7 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E241" t="s">
         <v>157</v>
@@ -12943,7 +12943,7 @@
         <v>10</v>
       </c>
       <c r="D243" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E243" t="s">
         <v>17</v>
@@ -12995,7 +12995,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E245" t="s">
         <v>423</v>
@@ -13021,7 +13021,7 @@
         <v>12</v>
       </c>
       <c r="D246" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E246" t="s">
         <v>23</v>
@@ -13047,7 +13047,7 @@
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="E247" t="s">
         <v>425</v>
@@ -13073,7 +13073,7 @@
         <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="E248" t="s">
         <v>40</v>
@@ -13125,10 +13125,10 @@
         <v>14</v>
       </c>
       <c r="D250" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E250" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F250" t="s">
         <v>427</v>
@@ -13177,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E252" t="s">
         <v>431</v>
@@ -13229,7 +13229,7 @@
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E254" t="s">
         <v>435</v>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E256" t="s">
         <v>440</v>
@@ -13307,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="D257" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E257" t="s">
         <v>442</v>
@@ -13359,7 +13359,7 @@
         <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E259" t="s">
         <v>445</v>
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E261" t="s">
         <v>131</v>
@@ -13463,7 +13463,7 @@
         <v>2</v>
       </c>
       <c r="D263" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E263" t="s">
         <v>451</v>
@@ -13567,7 +13567,7 @@
         <v>4</v>
       </c>
       <c r="D267" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E267" t="s">
         <v>341</v>
@@ -13619,7 +13619,7 @@
         <v>5</v>
       </c>
       <c r="D269" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="E269" t="s">
         <v>46</v>
@@ -13697,7 +13697,7 @@
         <v>7</v>
       </c>
       <c r="D272" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E272" t="s">
         <v>463</v>
@@ -13723,7 +13723,7 @@
         <v>8</v>
       </c>
       <c r="D273" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E273" t="s">
         <v>465</v>
@@ -13749,7 +13749,7 @@
         <v>8</v>
       </c>
       <c r="D274" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E274" t="s">
         <v>394</v>
@@ -13775,7 +13775,7 @@
         <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E275" t="s">
         <v>208</v>
@@ -13801,7 +13801,7 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E276" t="s">
         <v>91</v>
@@ -13827,7 +13827,7 @@
         <v>10</v>
       </c>
       <c r="D277" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E277" t="s">
         <v>167</v>
@@ -13879,7 +13879,7 @@
         <v>11</v>
       </c>
       <c r="D279" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E279" t="s">
         <v>320</v>
@@ -13905,13 +13905,13 @@
         <v>11</v>
       </c>
       <c r="D280" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E280" t="s">
         <v>472</v>
       </c>
       <c r="F280" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>12</v>
       </c>
       <c r="D281" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E281" t="s">
         <v>17</v>
@@ -13957,7 +13957,7 @@
         <v>12</v>
       </c>
       <c r="D282" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E282" t="s">
         <v>474</v>
@@ -14087,7 +14087,7 @@
         <v>15</v>
       </c>
       <c r="D287" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="E287" t="s">
         <v>35</v>
@@ -14113,7 +14113,7 @@
         <v>15</v>
       </c>
       <c r="D288" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E288" t="s">
         <v>70</v>
@@ -14139,7 +14139,7 @@
         <v>16</v>
       </c>
       <c r="D289" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E289" t="s">
         <v>484</v>
@@ -14217,7 +14217,7 @@
         <v>17</v>
       </c>
       <c r="D292" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E292" t="s">
         <v>489</v>
@@ -14243,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E293" t="s">
         <v>492</v>
@@ -14295,7 +14295,7 @@
         <v>2</v>
       </c>
       <c r="D295" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E295" t="s">
         <v>70</v>
@@ -14347,7 +14347,7 @@
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E297" t="s">
         <v>155</v>
@@ -14399,7 +14399,7 @@
         <v>4</v>
       </c>
       <c r="D299" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E299" t="s">
         <v>155</v>
@@ -14425,7 +14425,7 @@
         <v>4</v>
       </c>
       <c r="D300" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E300" t="s">
         <v>500</v>
@@ -14503,7 +14503,7 @@
         <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E303" t="s">
         <v>54</v>
@@ -14607,7 +14607,7 @@
         <v>8</v>
       </c>
       <c r="D307" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E307" t="s">
         <v>280</v>
@@ -14659,7 +14659,7 @@
         <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E309" t="s">
         <v>515</v>
@@ -14711,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E311" t="s">
         <v>520</v>
@@ -14763,7 +14763,7 @@
         <v>2</v>
       </c>
       <c r="D313" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E313" t="s">
         <v>524</v>
@@ -14789,7 +14789,7 @@
         <v>2</v>
       </c>
       <c r="D314" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E314" t="s">
         <v>425</v>
@@ -14867,7 +14867,7 @@
         <v>4</v>
       </c>
       <c r="D317" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E317" t="s">
         <v>530</v>
@@ -14893,7 +14893,7 @@
         <v>4</v>
       </c>
       <c r="D318" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E318" t="s">
         <v>532</v>
@@ -14919,7 +14919,7 @@
         <v>1</v>
       </c>
       <c r="D319" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E319" t="s">
         <v>535</v>
@@ -14945,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E320" t="s">
         <v>341</v>
@@ -14971,7 +14971,7 @@
         <v>2</v>
       </c>
       <c r="D321" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E321" t="s">
         <v>538</v>
@@ -15101,7 +15101,7 @@
         <v>4</v>
       </c>
       <c r="D326" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E326" t="s">
         <v>408</v>
@@ -15127,7 +15127,7 @@
         <v>1</v>
       </c>
       <c r="D327" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E327" t="s">
         <v>341</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E328" t="s">
         <v>149</v>
@@ -15179,7 +15179,7 @@
         <v>2</v>
       </c>
       <c r="D329" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E329" t="s">
         <v>551</v>
@@ -15257,7 +15257,7 @@
         <v>3</v>
       </c>
       <c r="D332" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E332" t="s">
         <v>556</v>
@@ -15283,7 +15283,7 @@
         <v>4</v>
       </c>
       <c r="D333" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E333" t="s">
         <v>451</v>
@@ -15335,7 +15335,7 @@
         <v>5</v>
       </c>
       <c r="D335" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E335" t="s">
         <v>559</v>
@@ -15387,7 +15387,7 @@
         <v>6</v>
       </c>
       <c r="D337" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E337" t="s">
         <v>56</v>
@@ -15413,7 +15413,7 @@
         <v>6</v>
       </c>
       <c r="D338" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E338" t="s">
         <v>563</v>
@@ -15439,7 +15439,7 @@
         <v>1</v>
       </c>
       <c r="D339" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E339" t="s">
         <v>80</v>
@@ -15465,7 +15465,7 @@
         <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E340" t="s">
         <v>237</v>
@@ -15491,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="D341" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E341" t="s">
         <v>567</v>
@@ -15517,7 +15517,7 @@
         <v>2</v>
       </c>
       <c r="D342" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E342" t="s">
         <v>367</v>
@@ -15543,7 +15543,7 @@
         <v>3</v>
       </c>
       <c r="D343" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E343" t="s">
         <v>569</v>
@@ -15569,13 +15569,13 @@
         <v>3</v>
       </c>
       <c r="D344" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E344" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F344" t="s">
         <v>1972</v>
-      </c>
-      <c r="F344" t="s">
-        <v>1973</v>
       </c>
       <c r="G344">
         <v>0</v>
@@ -15595,7 +15595,7 @@
         <v>4</v>
       </c>
       <c r="D345" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E345" t="s">
         <v>17</v>
@@ -15647,13 +15647,13 @@
         <v>5</v>
       </c>
       <c r="D347" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="E347" t="s">
         <v>388</v>
       </c>
       <c r="F347" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="G347">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="D349" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E349" t="s">
         <v>575</v>
@@ -15725,7 +15725,7 @@
         <v>1</v>
       </c>
       <c r="D350" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E350" t="s">
         <v>431</v>
@@ -15803,7 +15803,7 @@
         <v>1</v>
       </c>
       <c r="D353" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E353" t="s">
         <v>417</v>
@@ -15829,7 +15829,7 @@
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E354" t="s">
         <v>582</v>
@@ -15855,7 +15855,7 @@
         <v>2</v>
       </c>
       <c r="D355" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E355" t="s">
         <v>584</v>
@@ -15907,7 +15907,7 @@
         <v>3</v>
       </c>
       <c r="D357" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E357" t="s">
         <v>86</v>
@@ -15985,7 +15985,7 @@
         <v>4</v>
       </c>
       <c r="D360" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E360" t="s">
         <v>48</v>
@@ -16037,7 +16037,7 @@
         <v>5</v>
       </c>
       <c r="D362" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E362" t="s">
         <v>394</v>
@@ -16089,7 +16089,7 @@
         <v>6</v>
       </c>
       <c r="D364" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E364" t="s">
         <v>597</v>
@@ -16141,7 +16141,7 @@
         <v>7</v>
       </c>
       <c r="D366" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E366" t="s">
         <v>239</v>
@@ -16193,7 +16193,7 @@
         <v>8</v>
       </c>
       <c r="D368" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E368" t="s">
         <v>604</v>
@@ -16219,7 +16219,7 @@
         <v>1</v>
       </c>
       <c r="D369" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E369" t="s">
         <v>607</v>
@@ -16245,7 +16245,7 @@
         <v>1</v>
       </c>
       <c r="D370" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E370" t="s">
         <v>608</v>
@@ -16271,7 +16271,7 @@
         <v>2</v>
       </c>
       <c r="D371" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E371" t="s">
         <v>155</v>
@@ -16297,7 +16297,7 @@
         <v>2</v>
       </c>
       <c r="D372" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E372" t="s">
         <v>48</v>
@@ -16479,7 +16479,7 @@
         <v>6</v>
       </c>
       <c r="D379" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E379" t="s">
         <v>21</v>
@@ -16531,7 +16531,7 @@
         <v>7</v>
       </c>
       <c r="D381" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E381" t="s">
         <v>625</v>
@@ -16583,7 +16583,7 @@
         <v>8</v>
       </c>
       <c r="D383" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E383" t="s">
         <v>21</v>
@@ -16609,7 +16609,7 @@
         <v>9</v>
       </c>
       <c r="D384" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E384" t="s">
         <v>320</v>
@@ -16661,7 +16661,7 @@
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E386" t="s">
         <v>631</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="D387" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E387" t="s">
         <v>408</v>
@@ -16713,7 +16713,7 @@
         <v>2</v>
       </c>
       <c r="D388" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E388" t="s">
         <v>86</v>
@@ -16739,7 +16739,7 @@
         <v>2</v>
       </c>
       <c r="D389" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E389" t="s">
         <v>9</v>
@@ -16817,7 +16817,7 @@
         <v>4</v>
       </c>
       <c r="D392" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E392" t="s">
         <v>320</v>
@@ -16869,7 +16869,7 @@
         <v>5</v>
       </c>
       <c r="D394" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E394" t="s">
         <v>641</v>
@@ -16895,7 +16895,7 @@
         <v>5</v>
       </c>
       <c r="D395" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E395" t="s">
         <v>643</v>
@@ -16999,7 +16999,7 @@
         <v>7</v>
       </c>
       <c r="D399" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E399" t="s">
         <v>46</v>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="D400" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E400" t="s">
         <v>367</v>
@@ -17103,13 +17103,13 @@
         <v>9</v>
       </c>
       <c r="D403" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E403" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F403" t="s">
         <v>1980</v>
-      </c>
-      <c r="F403" t="s">
-        <v>1981</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -17181,13 +17181,13 @@
         <v>11</v>
       </c>
       <c r="D406" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E406" t="s">
         <v>654</v>
       </c>
       <c r="F406" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G406">
         <v>1</v>
@@ -17311,7 +17311,7 @@
         <v>13</v>
       </c>
       <c r="D411" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E411" t="s">
         <v>661</v>
@@ -17363,7 +17363,7 @@
         <v>1</v>
       </c>
       <c r="D413" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E413" t="s">
         <v>665</v>
@@ -17389,7 +17389,7 @@
         <v>2</v>
       </c>
       <c r="D414" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E414" t="s">
         <v>667</v>
@@ -17545,7 +17545,7 @@
         <v>5</v>
       </c>
       <c r="D420" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E420" t="s">
         <v>676</v>
@@ -17597,7 +17597,7 @@
         <v>6</v>
       </c>
       <c r="D422" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E422" t="s">
         <v>46</v>
@@ -17649,13 +17649,13 @@
         <v>7</v>
       </c>
       <c r="D424" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E424" t="s">
         <v>230</v>
       </c>
       <c r="F424" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="G424">
         <v>1</v>
@@ -17701,7 +17701,7 @@
         <v>8</v>
       </c>
       <c r="D426" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E426" t="s">
         <v>682</v>
@@ -17753,7 +17753,7 @@
         <v>1</v>
       </c>
       <c r="D428" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E428" t="s">
         <v>686</v>
@@ -17779,7 +17779,7 @@
         <v>1</v>
       </c>
       <c r="D429" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E429" t="s">
         <v>687</v>
@@ -17805,7 +17805,7 @@
         <v>2</v>
       </c>
       <c r="D430" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E430" t="s">
         <v>689</v>
@@ -17831,7 +17831,7 @@
         <v>2</v>
       </c>
       <c r="D431" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E431" t="s">
         <v>170</v>
@@ -17857,7 +17857,7 @@
         <v>3</v>
       </c>
       <c r="D432" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E432" t="s">
         <v>157</v>
@@ -17909,7 +17909,7 @@
         <v>4</v>
       </c>
       <c r="D434" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E434" t="s">
         <v>692</v>
@@ -17935,7 +17935,7 @@
         <v>4</v>
       </c>
       <c r="D435" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E435" t="s">
         <v>17</v>
@@ -17987,7 +17987,7 @@
         <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E437" t="s">
         <v>417</v>
@@ -18013,7 +18013,7 @@
         <v>2</v>
       </c>
       <c r="D438" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E438" t="s">
         <v>699</v>
@@ -18039,7 +18039,7 @@
         <v>2</v>
       </c>
       <c r="D439" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E439" t="s">
         <v>701</v>
@@ -18065,7 +18065,7 @@
         <v>3</v>
       </c>
       <c r="D440" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E440" t="s">
         <v>703</v>
@@ -18091,7 +18091,7 @@
         <v>3</v>
       </c>
       <c r="D441" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E441" t="s">
         <v>705</v>
@@ -18117,7 +18117,7 @@
         <v>4</v>
       </c>
       <c r="D442" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="E442" t="s">
         <v>631</v>
@@ -18169,7 +18169,7 @@
         <v>5</v>
       </c>
       <c r="D444" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E444" t="s">
         <v>708</v>
@@ -18221,7 +18221,7 @@
         <v>6</v>
       </c>
       <c r="D446" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E446" t="s">
         <v>711</v>
@@ -18247,7 +18247,7 @@
         <v>6</v>
       </c>
       <c r="D447" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E447" t="s">
         <v>712</v>
@@ -18325,7 +18325,7 @@
         <v>8</v>
       </c>
       <c r="D450" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E450" t="s">
         <v>268</v>
@@ -18351,7 +18351,7 @@
         <v>8</v>
       </c>
       <c r="D451" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E451" t="s">
         <v>717</v>
@@ -18403,7 +18403,7 @@
         <v>1</v>
       </c>
       <c r="D453" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E453" t="s">
         <v>532</v>
@@ -18429,7 +18429,7 @@
         <v>2</v>
       </c>
       <c r="D454" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E454" t="s">
         <v>102</v>
@@ -18533,7 +18533,7 @@
         <v>2</v>
       </c>
       <c r="D458" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E458" t="s">
         <v>730</v>
@@ -18559,7 +18559,7 @@
         <v>2</v>
       </c>
       <c r="D459" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E459" t="s">
         <v>182</v>
@@ -18611,7 +18611,7 @@
         <v>3</v>
       </c>
       <c r="D461" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E461" t="s">
         <v>40</v>
@@ -18689,7 +18689,7 @@
         <v>2</v>
       </c>
       <c r="D464" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E464" t="s">
         <v>119</v>
@@ -18715,7 +18715,7 @@
         <v>2</v>
       </c>
       <c r="D465" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E465" t="s">
         <v>486</v>
@@ -18793,7 +18793,7 @@
         <v>4</v>
       </c>
       <c r="D468" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E468" t="s">
         <v>657</v>
@@ -18819,7 +18819,7 @@
         <v>4</v>
       </c>
       <c r="D469" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E469" t="s">
         <v>711</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="D472" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E472" t="s">
         <v>748</v>
@@ -18923,7 +18923,7 @@
         <v>2</v>
       </c>
       <c r="D473" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E473" t="s">
         <v>408</v>
@@ -18949,7 +18949,7 @@
         <v>1</v>
       </c>
       <c r="D474" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E474" t="s">
         <v>752</v>
@@ -18975,7 +18975,7 @@
         <v>1</v>
       </c>
       <c r="D475" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E475" t="s">
         <v>754</v>
@@ -19001,7 +19001,7 @@
         <v>2</v>
       </c>
       <c r="D476" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E476" t="s">
         <v>665</v>
@@ -19027,7 +19027,7 @@
         <v>2</v>
       </c>
       <c r="D477" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E477" t="s">
         <v>641</v>
@@ -19053,7 +19053,7 @@
         <v>3</v>
       </c>
       <c r="D478" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E478" t="s">
         <v>417</v>
@@ -19079,7 +19079,7 @@
         <v>3</v>
       </c>
       <c r="D479" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E479" t="s">
         <v>408</v>
@@ -19105,7 +19105,7 @@
         <v>4</v>
       </c>
       <c r="D480" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="E480" t="s">
         <v>394</v>
@@ -19209,7 +19209,7 @@
         <v>6</v>
       </c>
       <c r="D484" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E484" t="s">
         <v>492</v>
@@ -19235,7 +19235,7 @@
         <v>6</v>
       </c>
       <c r="D485" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E485" t="s">
         <v>762</v>
@@ -19287,7 +19287,7 @@
         <v>7</v>
       </c>
       <c r="D487" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E487" t="s">
         <v>451</v>
@@ -19313,7 +19313,7 @@
         <v>8</v>
       </c>
       <c r="D488" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E488" t="s">
         <v>21</v>
@@ -19339,7 +19339,7 @@
         <v>8</v>
       </c>
       <c r="D489" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E489" t="s">
         <v>766</v>
@@ -19365,7 +19365,7 @@
         <v>9</v>
       </c>
       <c r="D490" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E490" t="s">
         <v>320</v>
@@ -19391,7 +19391,7 @@
         <v>9</v>
       </c>
       <c r="D491" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E491" t="s">
         <v>769</v>
@@ -19417,7 +19417,7 @@
         <v>10</v>
       </c>
       <c r="D492" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E492" t="s">
         <v>752</v>
@@ -19443,7 +19443,7 @@
         <v>10</v>
       </c>
       <c r="D493" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E493" t="s">
         <v>40</v>
@@ -19469,7 +19469,7 @@
         <v>11</v>
       </c>
       <c r="D494" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E494" t="s">
         <v>17</v>
@@ -19521,7 +19521,7 @@
         <v>12</v>
       </c>
       <c r="D496" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E496" t="s">
         <v>775</v>
@@ -19573,7 +19573,7 @@
         <v>1</v>
       </c>
       <c r="D498" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E498" t="s">
         <v>780</v>
@@ -19625,7 +19625,7 @@
         <v>2</v>
       </c>
       <c r="D500" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E500" t="s">
         <v>783</v>
@@ -19755,7 +19755,7 @@
         <v>1</v>
       </c>
       <c r="D505" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E505" t="s">
         <v>794</v>
@@ -19807,7 +19807,7 @@
         <v>2</v>
       </c>
       <c r="D507" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E507" t="s">
         <v>797</v>
@@ -19859,7 +19859,7 @@
         <v>3</v>
       </c>
       <c r="D509" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E509" t="s">
         <v>293</v>
@@ -19911,7 +19911,7 @@
         <v>4</v>
       </c>
       <c r="D511" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E511" t="s">
         <v>803</v>
@@ -19937,7 +19937,7 @@
         <v>5</v>
       </c>
       <c r="D512" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E512" t="s">
         <v>604</v>
@@ -20041,7 +20041,7 @@
         <v>7</v>
       </c>
       <c r="D516" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E516" t="s">
         <v>809</v>
@@ -20067,7 +20067,7 @@
         <v>7</v>
       </c>
       <c r="D517" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E517" t="s">
         <v>60</v>
@@ -20119,7 +20119,7 @@
         <v>8</v>
       </c>
       <c r="D519" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E519" t="s">
         <v>814</v>
@@ -20145,13 +20145,13 @@
         <v>9</v>
       </c>
       <c r="D520" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E520" t="s">
         <v>783</v>
       </c>
       <c r="F520" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G520">
         <v>1</v>
@@ -20275,7 +20275,7 @@
         <v>12</v>
       </c>
       <c r="D525" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E525" t="s">
         <v>822</v>
@@ -20301,7 +20301,7 @@
         <v>12</v>
       </c>
       <c r="D526" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E526" t="s">
         <v>17</v>
@@ -20405,7 +20405,7 @@
         <v>15</v>
       </c>
       <c r="D530" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E530" t="s">
         <v>831</v>
@@ -20431,7 +20431,7 @@
         <v>15</v>
       </c>
       <c r="D531" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E531" t="s">
         <v>832</v>
@@ -20483,7 +20483,7 @@
         <v>16</v>
       </c>
       <c r="D533" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E533" t="s">
         <v>836</v>
@@ -20509,7 +20509,7 @@
         <v>17</v>
       </c>
       <c r="D534" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E534" t="s">
         <v>460</v>
@@ -20535,7 +20535,7 @@
         <v>17</v>
       </c>
       <c r="D535" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E535" t="s">
         <v>157</v>
@@ -20561,7 +20561,7 @@
         <v>18</v>
       </c>
       <c r="D536" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E536" t="s">
         <v>840</v>
@@ -20587,7 +20587,7 @@
         <v>18</v>
       </c>
       <c r="D537" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E537" t="s">
         <v>841</v>
@@ -20639,7 +20639,7 @@
         <v>19</v>
       </c>
       <c r="D539" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E539" t="s">
         <v>428</v>
@@ -20665,7 +20665,7 @@
         <v>20</v>
       </c>
       <c r="D540" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E540" t="s">
         <v>70</v>
@@ -20691,7 +20691,7 @@
         <v>20</v>
       </c>
       <c r="D541" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E541" t="s">
         <v>486</v>
@@ -20717,7 +20717,7 @@
         <v>21</v>
       </c>
       <c r="D542" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E542" t="s">
         <v>847</v>
@@ -20795,7 +20795,7 @@
         <v>22</v>
       </c>
       <c r="D545" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E545" t="s">
         <v>852</v>
@@ -20847,7 +20847,7 @@
         <v>23</v>
       </c>
       <c r="D547" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E547" t="s">
         <v>794</v>
@@ -20899,7 +20899,7 @@
         <v>24</v>
       </c>
       <c r="D549" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E549" t="s">
         <v>657</v>
@@ -20925,7 +20925,7 @@
         <v>25</v>
       </c>
       <c r="D550" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E550" t="s">
         <v>437</v>
@@ -20951,7 +20951,7 @@
         <v>25</v>
       </c>
       <c r="D551" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E551" t="s">
         <v>859</v>
@@ -21003,7 +21003,7 @@
         <v>26</v>
       </c>
       <c r="D553" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E553" t="s">
         <v>657</v>
@@ -21029,7 +21029,7 @@
         <v>1</v>
       </c>
       <c r="D554" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E554" t="s">
         <v>752</v>
@@ -21055,7 +21055,7 @@
         <v>1</v>
       </c>
       <c r="D555" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="E555" t="s">
         <v>863</v>
@@ -21133,7 +21133,7 @@
         <v>3</v>
       </c>
       <c r="D558" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="E558" t="s">
         <v>604</v>
@@ -21159,7 +21159,7 @@
         <v>3</v>
       </c>
       <c r="D559" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E559" t="s">
         <v>124</v>
@@ -21211,7 +21211,7 @@
         <v>4</v>
       </c>
       <c r="D561" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="E561" t="s">
         <v>282</v>
@@ -21237,7 +21237,7 @@
         <v>5</v>
       </c>
       <c r="D562" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E562" t="s">
         <v>871</v>
@@ -21263,7 +21263,7 @@
         <v>5</v>
       </c>
       <c r="D563" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E563" t="s">
         <v>873</v>
@@ -21315,7 +21315,7 @@
         <v>6</v>
       </c>
       <c r="D565" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E565" t="s">
         <v>406</v>
@@ -21341,7 +21341,7 @@
         <v>7</v>
       </c>
       <c r="D566" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E566" t="s">
         <v>40</v>
@@ -21393,7 +21393,7 @@
         <v>8</v>
       </c>
       <c r="D568" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E568" t="s">
         <v>367</v>
@@ -21445,7 +21445,7 @@
         <v>9</v>
       </c>
       <c r="D570" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E570" t="s">
         <v>607</v>
@@ -21471,7 +21471,7 @@
         <v>9</v>
       </c>
       <c r="D571" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E571" t="s">
         <v>881</v>
@@ -21497,7 +21497,7 @@
         <v>10</v>
       </c>
       <c r="D572" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E572" t="s">
         <v>540</v>
@@ -21601,7 +21601,7 @@
         <v>12</v>
       </c>
       <c r="D576" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E576" t="s">
         <v>889</v>
@@ -21679,7 +21679,7 @@
         <v>13</v>
       </c>
       <c r="D579" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E579" t="s">
         <v>893</v>
@@ -21835,7 +21835,7 @@
         <v>2</v>
       </c>
       <c r="D585" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E585" t="s">
         <v>167</v>
@@ -21913,7 +21913,7 @@
         <v>3</v>
       </c>
       <c r="D588" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E588" t="s">
         <v>125</v>
@@ -21939,7 +21939,7 @@
         <v>4</v>
       </c>
       <c r="D589" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E589" t="s">
         <v>155</v>
@@ -21991,7 +21991,7 @@
         <v>5</v>
       </c>
       <c r="D591" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E591" t="s">
         <v>408</v>
@@ -22017,7 +22017,7 @@
         <v>5</v>
       </c>
       <c r="D592" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E592" t="s">
         <v>668</v>
@@ -22069,7 +22069,7 @@
         <v>6</v>
       </c>
       <c r="D594" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E594" t="s">
         <v>233</v>
@@ -22225,7 +22225,7 @@
         <v>9</v>
       </c>
       <c r="D600" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E600" t="s">
         <v>919</v>
@@ -22251,7 +22251,7 @@
         <v>10</v>
       </c>
       <c r="D601" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E601" t="s">
         <v>157</v>
@@ -22303,7 +22303,7 @@
         <v>11</v>
       </c>
       <c r="D603" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E603" t="s">
         <v>923</v>
@@ -22329,7 +22329,7 @@
         <v>11</v>
       </c>
       <c r="D604" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E604" t="s">
         <v>131</v>
@@ -22355,7 +22355,7 @@
         <v>12</v>
       </c>
       <c r="D605" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E605" t="s">
         <v>567</v>
@@ -22381,7 +22381,7 @@
         <v>12</v>
       </c>
       <c r="D606" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="E606" t="s">
         <v>926</v>
@@ -22433,7 +22433,7 @@
         <v>13</v>
       </c>
       <c r="D608" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E608" t="s">
         <v>930</v>
@@ -22459,7 +22459,7 @@
         <v>14</v>
       </c>
       <c r="D609" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E609" t="s">
         <v>40</v>
@@ -22485,7 +22485,7 @@
         <v>14</v>
       </c>
       <c r="D610" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E610" t="s">
         <v>102</v>
@@ -22511,13 +22511,13 @@
         <v>15</v>
       </c>
       <c r="D611" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E611" t="s">
         <v>17</v>
       </c>
       <c r="F611" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="G611">
         <v>1</v>
@@ -22537,13 +22537,13 @@
         <v>15</v>
       </c>
       <c r="D612" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E612" t="s">
         <v>28</v>
       </c>
       <c r="F612" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="G612">
         <v>0</v>
@@ -22667,7 +22667,7 @@
         <v>3</v>
       </c>
       <c r="D617" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E617" t="s">
         <v>492</v>
@@ -22693,7 +22693,7 @@
         <v>3</v>
       </c>
       <c r="D618" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E618" t="s">
         <v>939</v>
@@ -22823,7 +22823,7 @@
         <v>1</v>
       </c>
       <c r="D623" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E623" t="s">
         <v>947</v>
@@ -22849,7 +22849,7 @@
         <v>1</v>
       </c>
       <c r="D624" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E624" t="s">
         <v>394</v>
@@ -22901,7 +22901,7 @@
         <v>2</v>
       </c>
       <c r="D626" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E626" t="s">
         <v>437</v>
@@ -22979,7 +22979,7 @@
         <v>4</v>
       </c>
       <c r="D629" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E629" t="s">
         <v>398</v>
@@ -23187,7 +23187,7 @@
         <v>2</v>
       </c>
       <c r="D637" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E637" t="s">
         <v>965</v>
@@ -23213,7 +23213,7 @@
         <v>2</v>
       </c>
       <c r="D638" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="E638" t="s">
         <v>312</v>
@@ -23317,7 +23317,7 @@
         <v>5</v>
       </c>
       <c r="D642" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E642" t="s">
         <v>35</v>
@@ -23473,7 +23473,7 @@
         <v>8</v>
       </c>
       <c r="D648" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E648" t="s">
         <v>102</v>
@@ -23525,7 +23525,7 @@
         <v>9</v>
       </c>
       <c r="D650" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E650" t="s">
         <v>367</v>
@@ -23603,7 +23603,7 @@
         <v>10</v>
       </c>
       <c r="D653" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="E653" t="s">
         <v>983</v>
@@ -23629,7 +23629,7 @@
         <v>11</v>
       </c>
       <c r="D654" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E654" t="s">
         <v>985</v>
@@ -23655,7 +23655,7 @@
         <v>11</v>
       </c>
       <c r="D655" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E655" t="s">
         <v>408</v>
@@ -23759,7 +23759,7 @@
         <v>14</v>
       </c>
       <c r="D659" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E659" t="s">
         <v>975</v>
@@ -23785,7 +23785,7 @@
         <v>15</v>
       </c>
       <c r="D660" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E660" t="s">
         <v>590</v>
@@ -23811,7 +23811,7 @@
         <v>15</v>
       </c>
       <c r="D661" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E661" t="s">
         <v>157</v>
@@ -23837,7 +23837,7 @@
         <v>16</v>
       </c>
       <c r="D662" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E662" t="s">
         <v>17</v>
@@ -23863,7 +23863,7 @@
         <v>16</v>
       </c>
       <c r="D663" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E663" t="s">
         <v>367</v>
@@ -23941,7 +23941,7 @@
         <v>1</v>
       </c>
       <c r="D666" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E666" t="s">
         <v>40</v>
@@ -23967,7 +23967,7 @@
         <v>1</v>
       </c>
       <c r="D667" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E667" t="s">
         <v>168</v>
@@ -24071,7 +24071,7 @@
         <v>1</v>
       </c>
       <c r="D671" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E671" t="s">
         <v>748</v>
@@ -24097,7 +24097,7 @@
         <v>2</v>
       </c>
       <c r="D672" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E672" t="s">
         <v>204</v>
@@ -24123,7 +24123,7 @@
         <v>2</v>
       </c>
       <c r="D673" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E673" t="s">
         <v>1003</v>
@@ -24149,7 +24149,7 @@
         <v>3</v>
       </c>
       <c r="D674" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E674" t="s">
         <v>665</v>
@@ -24175,7 +24175,7 @@
         <v>4</v>
       </c>
       <c r="D675" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E675" t="s">
         <v>1006</v>
@@ -24201,7 +24201,7 @@
         <v>5</v>
       </c>
       <c r="D676" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E676" t="s">
         <v>1008</v>
@@ -24227,7 +24227,7 @@
         <v>5</v>
       </c>
       <c r="D677" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="E677" t="s">
         <v>1009</v>
@@ -24253,7 +24253,7 @@
         <v>6</v>
       </c>
       <c r="D678" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E678" t="s">
         <v>341</v>
@@ -24305,7 +24305,7 @@
         <v>7</v>
       </c>
       <c r="D680" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="E680" t="s">
         <v>1014</v>
@@ -24409,7 +24409,7 @@
         <v>1</v>
       </c>
       <c r="D684" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E684" t="s">
         <v>1021</v>
@@ -24461,7 +24461,7 @@
         <v>2</v>
       </c>
       <c r="D686" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E686" t="s">
         <v>119</v>
@@ -24487,7 +24487,7 @@
         <v>3</v>
       </c>
       <c r="D687" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E687" t="s">
         <v>877</v>
@@ -24513,7 +24513,7 @@
         <v>3</v>
       </c>
       <c r="D688" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E688" t="s">
         <v>1026</v>
@@ -24539,7 +24539,7 @@
         <v>4</v>
       </c>
       <c r="D689" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E689" t="s">
         <v>239</v>
@@ -24565,7 +24565,7 @@
         <v>4</v>
       </c>
       <c r="D690" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E690" t="s">
         <v>1028</v>
@@ -24643,7 +24643,7 @@
         <v>6</v>
       </c>
       <c r="D693" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E693" t="s">
         <v>86</v>
@@ -24669,7 +24669,7 @@
         <v>6</v>
       </c>
       <c r="D694" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="E694" t="s">
         <v>1033</v>
@@ -24695,7 +24695,7 @@
         <v>7</v>
       </c>
       <c r="D695" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E695" t="s">
         <v>119</v>
@@ -24721,7 +24721,7 @@
         <v>7</v>
       </c>
       <c r="D696" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E696" t="s">
         <v>1034</v>
@@ -24799,7 +24799,7 @@
         <v>9</v>
       </c>
       <c r="D699" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E699" t="s">
         <v>80</v>
@@ -24877,7 +24877,7 @@
         <v>1</v>
       </c>
       <c r="D702" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E702" t="s">
         <v>1043</v>
@@ -24929,7 +24929,7 @@
         <v>2</v>
       </c>
       <c r="D704" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E704" t="s">
         <v>450</v>
@@ -24955,7 +24955,7 @@
         <v>3</v>
       </c>
       <c r="D705" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E705" t="s">
         <v>1047</v>
@@ -24981,7 +24981,7 @@
         <v>3</v>
       </c>
       <c r="D706" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E706" t="s">
         <v>353</v>
@@ -25007,7 +25007,7 @@
         <v>4</v>
       </c>
       <c r="D707" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E707" t="s">
         <v>840</v>
@@ -25033,7 +25033,7 @@
         <v>4</v>
       </c>
       <c r="D708" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E708" t="s">
         <v>1051</v>
@@ -25085,7 +25085,7 @@
         <v>5</v>
       </c>
       <c r="D710" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E710" t="s">
         <v>1055</v>
@@ -25111,7 +25111,7 @@
         <v>6</v>
       </c>
       <c r="D711" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E711" t="s">
         <v>615</v>
@@ -25137,7 +25137,7 @@
         <v>7</v>
       </c>
       <c r="D712" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E712" t="s">
         <v>1057</v>
@@ -25163,7 +25163,7 @@
         <v>7</v>
       </c>
       <c r="D713" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E713" t="s">
         <v>692</v>
@@ -25215,7 +25215,7 @@
         <v>8</v>
       </c>
       <c r="D715" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E715" t="s">
         <v>554</v>
@@ -25241,7 +25241,7 @@
         <v>9</v>
       </c>
       <c r="D716" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E716" t="s">
         <v>1061</v>
@@ -25319,7 +25319,7 @@
         <v>10</v>
       </c>
       <c r="D719" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E719" t="s">
         <v>210</v>
@@ -25345,7 +25345,7 @@
         <v>11</v>
       </c>
       <c r="D720" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E720" t="s">
         <v>1065</v>
@@ -25397,7 +25397,7 @@
         <v>12</v>
       </c>
       <c r="D722" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E722" t="s">
         <v>1069</v>
@@ -25423,7 +25423,7 @@
         <v>13</v>
       </c>
       <c r="D723" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E723" t="s">
         <v>1071</v>
@@ -25449,7 +25449,7 @@
         <v>13</v>
       </c>
       <c r="D724" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E724" t="s">
         <v>1072</v>
@@ -25501,7 +25501,7 @@
         <v>14</v>
       </c>
       <c r="D726" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="E726" t="s">
         <v>1074</v>
@@ -25631,7 +25631,7 @@
         <v>17</v>
       </c>
       <c r="D731" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="E731" t="s">
         <v>147</v>
@@ -25657,7 +25657,7 @@
         <v>17</v>
       </c>
       <c r="D732" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E732" t="s">
         <v>1082</v>
@@ -25683,7 +25683,7 @@
         <v>18</v>
       </c>
       <c r="D733" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E733" t="s">
         <v>358</v>
@@ -25709,7 +25709,7 @@
         <v>18</v>
       </c>
       <c r="D734" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E734" t="s">
         <v>1085</v>
@@ -25735,7 +25735,7 @@
         <v>19</v>
       </c>
       <c r="D735" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E735" t="s">
         <v>1087</v>
@@ -25787,7 +25787,7 @@
         <v>20</v>
       </c>
       <c r="D737" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E737" t="s">
         <v>873</v>
@@ -25839,7 +25839,7 @@
         <v>21</v>
       </c>
       <c r="D739" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="E739" t="s">
         <v>855</v>
@@ -25891,7 +25891,7 @@
         <v>22</v>
       </c>
       <c r="D741" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E741" t="s">
         <v>602</v>
@@ -25917,7 +25917,7 @@
         <v>23</v>
       </c>
       <c r="D742" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E742" t="s">
         <v>182</v>
@@ -25969,7 +25969,7 @@
         <v>24</v>
       </c>
       <c r="D744" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E744" t="s">
         <v>1098</v>
@@ -26021,7 +26021,7 @@
         <v>25</v>
       </c>
       <c r="D746" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E746" t="s">
         <v>500</v>
@@ -26047,7 +26047,7 @@
         <v>26</v>
       </c>
       <c r="D747" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E747" t="s">
         <v>157</v>
@@ -26099,7 +26099,7 @@
         <v>27</v>
       </c>
       <c r="D749" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E749" t="s">
         <v>1103</v>
@@ -26151,7 +26151,7 @@
         <v>28</v>
       </c>
       <c r="D751" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="E751" t="s">
         <v>1106</v>
@@ -26177,7 +26177,7 @@
         <v>29</v>
       </c>
       <c r="D752" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="E752" t="s">
         <v>1107</v>
@@ -26203,7 +26203,7 @@
         <v>29</v>
       </c>
       <c r="D753" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E753" t="s">
         <v>21</v>
@@ -26255,13 +26255,13 @@
         <v>30</v>
       </c>
       <c r="D755" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E755" t="s">
         <v>341</v>
       </c>
       <c r="F755" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G755">
         <v>0</v>
@@ -26281,7 +26281,7 @@
         <v>31</v>
       </c>
       <c r="D756" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E756" t="s">
         <v>86</v>
@@ -26359,7 +26359,7 @@
         <v>33</v>
       </c>
       <c r="D759" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E759" t="s">
         <v>1112</v>
@@ -26385,7 +26385,7 @@
         <v>33</v>
       </c>
       <c r="D760" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E760" t="s">
         <v>540</v>
@@ -26411,7 +26411,7 @@
         <v>34</v>
       </c>
       <c r="D761" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E761" t="s">
         <v>1114</v>
@@ -26437,7 +26437,7 @@
         <v>34</v>
       </c>
       <c r="D762" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E762" t="s">
         <v>1116</v>
@@ -26489,7 +26489,7 @@
         <v>35</v>
       </c>
       <c r="D764" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E764" t="s">
         <v>367</v>
@@ -26541,7 +26541,7 @@
         <v>36</v>
       </c>
       <c r="D766" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E766" t="s">
         <v>1121</v>
@@ -26593,7 +26593,7 @@
         <v>37</v>
       </c>
       <c r="D768" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E768" t="s">
         <v>1124</v>
@@ -26619,7 +26619,7 @@
         <v>38</v>
       </c>
       <c r="D769" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E769" t="s">
         <v>1005</v>
@@ -26645,7 +26645,7 @@
         <v>38</v>
       </c>
       <c r="D770" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="E770" t="s">
         <v>1127</v>
@@ -26697,7 +26697,7 @@
         <v>1</v>
       </c>
       <c r="D772" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E772" t="s">
         <v>23</v>
@@ -26879,7 +26879,7 @@
         <v>1</v>
       </c>
       <c r="D779" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E779" t="s">
         <v>1138</v>
@@ -26931,7 +26931,7 @@
         <v>1</v>
       </c>
       <c r="D781" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E781" t="s">
         <v>21</v>
@@ -26957,7 +26957,7 @@
         <v>1</v>
       </c>
       <c r="D782" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E782" t="s">
         <v>1144</v>
@@ -27035,7 +27035,7 @@
         <v>3</v>
       </c>
       <c r="D785" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E785" t="s">
         <v>21</v>
@@ -27061,7 +27061,7 @@
         <v>3</v>
       </c>
       <c r="D786" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E786" t="s">
         <v>323</v>
@@ -27087,7 +27087,7 @@
         <v>4</v>
       </c>
       <c r="D787" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E787" t="s">
         <v>1149</v>
@@ -27113,7 +27113,7 @@
         <v>4</v>
       </c>
       <c r="D788" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E788" t="s">
         <v>1062</v>
@@ -27139,7 +27139,7 @@
         <v>5</v>
       </c>
       <c r="D789" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E789" t="s">
         <v>408</v>
@@ -27191,7 +27191,7 @@
         <v>6</v>
       </c>
       <c r="D791" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E791" t="s">
         <v>1154</v>
@@ -27295,7 +27295,7 @@
         <v>8</v>
       </c>
       <c r="D795" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E795" t="s">
         <v>752</v>
@@ -27347,7 +27347,7 @@
         <v>9</v>
       </c>
       <c r="D797" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E797" t="s">
         <v>1163</v>
@@ -27451,7 +27451,7 @@
         <v>11</v>
       </c>
       <c r="D801" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="E801" t="s">
         <v>1170</v>
@@ -27503,7 +27503,7 @@
         <v>1</v>
       </c>
       <c r="D803" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E803" t="s">
         <v>1174</v>
@@ -27633,7 +27633,7 @@
         <v>3</v>
       </c>
       <c r="D808" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E808" t="s">
         <v>204</v>
@@ -27737,7 +27737,7 @@
         <v>5</v>
       </c>
       <c r="D812" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E812" t="s">
         <v>1186</v>
@@ -27815,13 +27815,13 @@
         <v>7</v>
       </c>
       <c r="D815" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E815" t="s">
         <v>1189</v>
       </c>
       <c r="F815" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="G815">
         <v>1</v>
@@ -27841,7 +27841,7 @@
         <v>7</v>
       </c>
       <c r="D816" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E816" t="s">
         <v>949</v>
@@ -27867,7 +27867,7 @@
         <v>8</v>
       </c>
       <c r="D817" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E817" t="s">
         <v>198</v>
@@ -27893,13 +27893,13 @@
         <v>8</v>
       </c>
       <c r="D818" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E818" t="s">
         <v>102</v>
       </c>
       <c r="F818" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G818">
         <v>0</v>
@@ -27945,7 +27945,7 @@
         <v>9</v>
       </c>
       <c r="D820" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E820" t="s">
         <v>95</v>
@@ -27997,7 +27997,7 @@
         <v>10</v>
       </c>
       <c r="D822" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E822" t="s">
         <v>353</v>
@@ -28023,7 +28023,7 @@
         <v>1</v>
       </c>
       <c r="D823" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E823" t="s">
         <v>1198</v>
@@ -28049,7 +28049,7 @@
         <v>1</v>
       </c>
       <c r="D824" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E824" t="s">
         <v>1199</v>
@@ -28075,7 +28075,7 @@
         <v>2</v>
       </c>
       <c r="D825" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E825" t="s">
         <v>756</v>
@@ -28101,7 +28101,7 @@
         <v>2</v>
       </c>
       <c r="D826" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E826" t="s">
         <v>12</v>
@@ -28127,7 +28127,7 @@
         <v>1</v>
       </c>
       <c r="D827" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E827" t="s">
         <v>1204</v>
@@ -28257,7 +28257,7 @@
         <v>3</v>
       </c>
       <c r="D832" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E832" t="s">
         <v>1210</v>
@@ -28283,7 +28283,7 @@
         <v>4</v>
       </c>
       <c r="D833" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E833" t="s">
         <v>1212</v>
@@ -28309,7 +28309,7 @@
         <v>4</v>
       </c>
       <c r="D834" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E834" t="s">
         <v>641</v>
@@ -28387,7 +28387,7 @@
         <v>6</v>
       </c>
       <c r="D837" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E837" t="s">
         <v>590</v>
@@ -28465,7 +28465,7 @@
         <v>8</v>
       </c>
       <c r="D840" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E840" t="s">
         <v>17</v>
@@ -28491,13 +28491,13 @@
         <v>1</v>
       </c>
       <c r="D841" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E841" t="s">
         <v>1036</v>
       </c>
       <c r="F841" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G841">
         <v>0</v>
